--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2537,8 +2537,8 @@
         <v>19</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>MIN(ROUNDUP(43*1.15,0),45)</f>
+        <v>45</v>
       </c>
       <c r="F30">
         <f>MIN(ROUNDUP(34*1.15,0),48)</f>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amari\OneDrive\GitHub\AlexAmarioarei.github.io\Teaching\ProbabilityStatistics\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f361a4bc30e7aea/GitHub/AlexAmarioarei.github.io/Teaching/ProbabilityStatistics/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1297,10 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2110,7 +2111,8 @@
         <v>241</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <f>MIN(ROUNDUP(65*1.1,0),80)</f>
+        <v>72</v>
       </c>
       <c r="D20">
         <f>MIN(ROUNDUP(17*1.1,0),20)</f>
@@ -2141,7 +2143,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -2774,7 +2776,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2816,7 +2818,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2942,7 +2944,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -3278,7 +3280,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -3572,7 +3574,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3614,7 +3616,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -3656,7 +3658,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -3824,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -3866,7 +3868,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4034,7 +4036,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -4076,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -4202,7 +4204,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -4580,7 +4582,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -5462,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5756,7 +5758,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -5798,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5840,7 +5842,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -5882,7 +5884,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -6050,7 +6052,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -6226,7 +6228,8 @@
         <v>244</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <f>MIN(ROUNDUP(44*1.1,0),76)</f>
+        <v>49</v>
       </c>
       <c r="D118">
         <f t="shared" si="9"/>
@@ -6257,10 +6260,10 @@
       </c>
       <c r="L118">
         <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -6946,7 +6949,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L134"/>
+  <autoFilter ref="A1:L134">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="241"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f361a4bc30e7aea/GitHub/AlexAmarioarei.github.io/Teaching/ProbabilityStatistics/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amari\OneDrive\GitHub\AlexAmarioarei.github.io\Teaching\ProbabilityStatistics\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>123</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>124</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>125</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>126</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>127</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>129</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>130</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>131</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -6440,8 +6440,8 @@
         <v>244</v>
       </c>
       <c r="C123">
-        <f>MIN(ROUNDUP(0*1.1,0),78)</f>
-        <v>0</v>
+        <f>MIN(ROUNDUP(21*1.1,0),78)</f>
+        <v>24</v>
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
@@ -6472,10 +6472,10 @@
       </c>
       <c r="L123">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>133</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>134</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>135</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>137</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>139</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -6952,7 +6952,7 @@
   <autoFilter ref="A1:L134">
     <filterColumn colId="1">
       <filters>
-        <filter val="241"/>
+        <filter val="244"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabel_Prob_Stat" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabel_Prob_Stat!$A$1:$L$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabel_Prob_Stat!$A$1:$K$134</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Nume</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Tema_5</t>
   </si>
   <si>
-    <t>Tema_6</t>
-  </si>
-  <si>
     <t>Proiect_1</t>
   </si>
   <si>
-    <t>Proiect_2</t>
-  </si>
-  <si>
     <t>Examen</t>
   </si>
   <si>
@@ -457,6 +451,9 @@
   </si>
   <si>
     <t>CHIPER MARIUS DANIEL</t>
+  </si>
+  <si>
+    <t>Tema_Speciala</t>
   </si>
 </sst>
 </file>
@@ -1297,19 +1294,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L134"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="7" max="8" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,24 +1329,21 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>241</v>
@@ -1382,16 +1376,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>ROUNDUP(1+(C2/80+D2/20+E2/50+F2/50+G2/1+H2/1)/6*2.5,1)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C2/80+D2/20+E2/50+F2/50+G2/1)/5*2.5,1)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>241</v>
@@ -1424,16 +1415,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">ROUNDUP(1+(C3/80+D3/20+E3/50+F3/50+G3/1+H3/1)/6*2.5,1)</f>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C3/80+D3/20+E3/50+F3/50+G3/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>241</v>
@@ -1442,15 +1430,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D33" si="1">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D4:D33" si="0">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E66" si="2">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E4:E66" si="1">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F66" si="3">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F4:F66" si="2">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -1466,16 +1454,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C4/80+D4/20+E4/50+F4/50+G4/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>241</v>
@@ -1484,17 +1469,17 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1508,16 +1493,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C5/80+D5/20+E5/50+F5/50+G5/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>241</v>
@@ -1534,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6">
@@ -1550,16 +1532,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C6/80+D6/20+E6/50+F6/50+G6/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>241</v>
@@ -1568,17 +1547,17 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1592,16 +1571,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C7/80+D7/20+E7/50+F7/50+G7/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>241</v>
@@ -1618,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G8">
@@ -1634,16 +1610,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C8/80+D8/20+E8/50+F8/50+G8/1)/5*2.5,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>241</v>
@@ -1652,17 +1625,17 @@
         <v>59</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1676,16 +1649,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C9/80+D9/20+E9/50+F9/50+G9/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>241</v>
@@ -1718,16 +1688,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C10/80+D10/20+E10/50+F10/50+G10/1)/5*2.5,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>241</v>
@@ -1760,16 +1727,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C11/80+D11/20+E11/50+F11/50+G11/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>241</v>
@@ -1778,17 +1742,17 @@
         <v>58</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1802,16 +1766,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C12/80+D12/20+E12/50+F12/50+G12/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>241</v>
@@ -1820,17 +1781,17 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -1844,16 +1805,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C13/80+D13/20+E13/50+F13/50+G13/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>241</v>
@@ -1862,17 +1820,17 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1886,16 +1844,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C14/80+D14/20+E14/50+F14/50+G14/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>241</v>
@@ -1928,16 +1883,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C15/80+D15/20+E15/50+F15/50+G15/1)/5*2.5,1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>241</v>
@@ -1950,13 +1902,13 @@
         <v>15</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -1970,16 +1922,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C16/80+D16/20+E16/50+F16/50+G16/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>241</v>
@@ -2012,16 +1961,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C17/80+D17/20+E17/50+F17/50+G17/1)/5*2.5,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>241</v>
@@ -2030,17 +1976,17 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2054,16 +2000,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C18/80+D18/20+E18/50+F18/50+G18/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>241</v>
@@ -2096,16 +2039,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C19/80+D19/20+E19/50+F19/50+G19/1)/5*2.5,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>241</v>
@@ -2139,16 +2079,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C20/80+D20/20+E20/50+F20/50+G20/1)/5*2.5,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>241</v>
@@ -2157,17 +2094,17 @@
         <v>55</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2181,16 +2118,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C21/80+D21/20+E21/50+F21/50+G21/1)/5*2.5,1)</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>241</v>
@@ -2199,17 +2133,17 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -2223,16 +2157,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C22/80+D22/20+E22/50+F22/50+G22/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>241</v>
@@ -2241,17 +2172,17 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2265,16 +2196,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C23/80+D23/20+E23/50+F23/50+G23/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>241</v>
@@ -2283,17 +2211,17 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -2307,16 +2235,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C24/80+D24/20+E24/50+F24/50+G24/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>241</v>
@@ -2329,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2349,16 +2274,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C25/80+D25/20+E25/50+F25/50+G25/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>241</v>
@@ -2367,17 +2289,17 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2391,16 +2313,13 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C26/80+D26/20+E26/50+F26/50+G26/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>241</v>
@@ -2409,17 +2328,17 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -2433,16 +2352,13 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C27/80+D27/20+E27/50+F27/50+G27/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>241</v>
@@ -2451,17 +2367,17 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -2475,16 +2391,13 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C28/80+D28/20+E28/50+F28/50+G28/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>241</v>
@@ -2517,16 +2430,13 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C29/80+D29/20+E29/50+F29/50+G29/1)/5*2.5,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>241</v>
@@ -2559,16 +2469,13 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C30/80+D30/20+E30/50+F30/50+G30/1)/5*2.5,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>241</v>
@@ -2577,17 +2484,17 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -2601,16 +2508,13 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C31/80+D31/20+E31/50+F31/50+G31/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>241</v>
@@ -2623,7 +2527,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -2643,16 +2547,13 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C32/80+D32/20+E32/50+F32/50+G32/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>241</v>
@@ -2661,11 +2562,11 @@
         <v>64</v>
       </c>
       <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2685,16 +2586,13 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C33/80+D33/20+E33/50+F33/50+G33/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>241</v>
@@ -2727,16 +2625,13 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C34/80+D34/20+E34/50+F34/50+G34/1)/5*2.5,1)</f>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>241</v>
@@ -2769,16 +2664,13 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C35/80+D35/20+E35/50+F35/50+G35/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>242</v>
@@ -2811,16 +2703,13 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C36/80+D36/20+E36/50+F36/50+G36/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>242</v>
@@ -2853,16 +2742,13 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C37/80+D37/20+E37/50+F37/50+G37/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>242</v>
@@ -2871,17 +2757,17 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D66" si="4">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D38:D66" si="3">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -2895,16 +2781,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C38/80+D38/20+E38/50+F38/50+G38/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>242</v>
@@ -2913,17 +2796,17 @@
         <v>36</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -2937,16 +2820,13 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C39/80+D39/20+E39/50+F39/50+G39/1)/5*2.5,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>242</v>
@@ -2963,7 +2843,7 @@
         <v>30</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40">
@@ -2979,16 +2859,13 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C40/80+D40/20+E40/50+F40/50+G40/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>242</v>
@@ -2997,17 +2874,17 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -3021,16 +2898,13 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C41/80+D41/20+E41/50+F41/50+G41/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>242</v>
@@ -3043,7 +2917,7 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -3063,16 +2937,13 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C42/80+D42/20+E42/50+F42/50+G42/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>242</v>
@@ -3085,13 +2956,13 @@
         <v>18</v>
       </c>
       <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
@@ -3105,16 +2976,13 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C43/80+D43/20+E43/50+F43/50+G43/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>242</v>
@@ -3123,17 +2991,17 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -3147,16 +3015,13 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C44/80+D44/20+E44/50+F44/50+G44/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>242</v>
@@ -3173,7 +3038,7 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45">
@@ -3189,16 +3054,13 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C45/80+D45/20+E45/50+F45/50+G45/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>242</v>
@@ -3207,17 +3069,17 @@
         <v>66</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -3231,16 +3093,13 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C46/80+D46/20+E46/50+F46/50+G46/1)/5*2.5,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>242</v>
@@ -3273,16 +3132,13 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C47/80+D47/20+E47/50+F47/50+G47/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>242</v>
@@ -3291,17 +3147,17 @@
         <v>70</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -3315,16 +3171,13 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C48/80+D48/20+E48/50+F48/50+G48/1)/5*2.5,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>242</v>
@@ -3333,17 +3186,17 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -3357,16 +3210,13 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C49/80+D49/20+E49/50+F49/50+G49/1)/5*2.5,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>242</v>
@@ -3383,7 +3233,7 @@
         <v>28</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50">
@@ -3399,22 +3249,20 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C50/80+D50/20+E50/50+F50/50+G50/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>242</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <f>MIN(ROUNDUP(71*1.1,0),75)</f>
+        <v>75</v>
       </c>
       <c r="D51">
         <f>MIN(ROUNDUP(17*1.1,0),20)</f>
@@ -3441,16 +3289,13 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C51/80+D51/20+E51/50+F51/50+G51/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>242</v>
@@ -3459,17 +3304,17 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
@@ -3483,16 +3328,13 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C52/80+D52/20+E52/50+F52/50+G52/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>242</v>
@@ -3505,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3525,16 +3367,13 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C53/80+D53/20+E53/50+F53/50+G53/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>242</v>
@@ -3547,13 +3386,13 @@
         <v>19</v>
       </c>
       <c r="E54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>0</v>
       </c>
@@ -3567,16 +3406,13 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C54/80+D54/20+E54/50+F54/50+G54/1)/5*2.5,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>242</v>
@@ -3609,16 +3445,13 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C55/80+D55/20+E55/50+F55/50+G55/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>242</v>
@@ -3651,16 +3484,13 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C56/80+D56/20+E56/50+F56/50+G56/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>242</v>
@@ -3669,17 +3499,17 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -3693,16 +3523,13 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C57/80+D57/20+E57/50+F57/50+G57/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>242</v>
@@ -3715,13 +3542,13 @@
         <v>20</v>
       </c>
       <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G58">
         <v>0</v>
       </c>
@@ -3735,16 +3562,13 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C58/80+D58/20+E58/50+F58/50+G58/1)/5*2.5,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>242</v>
@@ -3753,17 +3577,17 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -3777,16 +3601,13 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C59/80+D59/20+E59/50+F59/50+G59/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>242</v>
@@ -3795,17 +3616,17 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -3819,16 +3640,13 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C60/80+D60/20+E60/50+F60/50+G60/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>242</v>
@@ -3861,16 +3679,13 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C61/80+D61/20+E61/50+F61/50+G61/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>242</v>
@@ -3903,16 +3718,13 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C62/80+D62/20+E62/50+F62/50+G62/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>242</v>
@@ -3921,7 +3733,7 @@
         <v>54</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E63">
@@ -3929,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63">
@@ -3945,16 +3757,13 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C63/80+D63/20+E63/50+F63/50+G63/1)/5*2.5,1)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>242</v>
@@ -3987,22 +3796,20 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C64/80+D64/20+E64/50+F64/50+G64/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>242</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <f>MIN(ROUNDUP(61*1.1,0),75)</f>
+        <v>68</v>
       </c>
       <c r="D65">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
@@ -4029,16 +3836,13 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C65/80+D65/20+E65/50+F65/50+G65/1)/5*2.5,1)</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>242</v>
@@ -4047,17 +3851,17 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G66">
         <v>0</v>
       </c>
@@ -4071,16 +3875,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
+        <f>ROUNDUP(1+(C66/80+D66/20+E66/50+F66/50+G66/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>242</v>
@@ -4113,22 +3914,20 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L130" si="5">ROUNDUP(1+(C67/80+D67/20+E67/50+F67/50+G67/1+H67/1)/6*2.5,1)</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C67/80+D67/20+E67/50+F67/50+G67/1)/5*2.5,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>242</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <f>MIN(ROUNDUP(63*1.1,0),75)</f>
+        <v>70</v>
       </c>
       <c r="D68">
         <f>MIN(ROUNDUP(15*1.1,0),20)</f>
@@ -4139,7 +3938,7 @@
         <v>15</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F130" si="6">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F68:F130" si="4">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G68">
@@ -4155,29 +3954,27 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C68/80+D68/20+E68/50+F68/50+G68/1)/5*2.5,1)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>242</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <f>MIN(ROUNDUP(46*1.1,0),75)</f>
+        <v>51</v>
       </c>
       <c r="D69">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E130" si="7">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E69:E130" si="5">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F69">
@@ -4197,16 +3994,13 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C69/80+D69/20+E69/50+F69/50+G69/1)/5*2.5,1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>243</v>
@@ -4239,16 +4033,13 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C70/80+D70/20+E70/50+F70/50+G70/1)/5*2.5,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>243</v>
@@ -4261,11 +4052,11 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G71">
@@ -4281,16 +4072,13 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="5"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C71/80+D71/20+E71/50+F71/50+G71/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72">
         <v>243</v>
@@ -4299,15 +4087,15 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D102" si="8">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D72:D102" si="6">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G72">
@@ -4323,16 +4111,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C72/80+D72/20+E72/50+F72/50+G72/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73">
         <v>243</v>
@@ -4341,15 +4126,15 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G73">
@@ -4365,16 +4150,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C73/80+D73/20+E73/50+F73/50+G73/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>243</v>
@@ -4387,11 +4169,11 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74">
@@ -4407,16 +4189,13 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="5"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C74/80+D74/20+E74/50+F74/50+G74/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75">
         <v>243</v>
@@ -4449,16 +4228,13 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="5"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C75/80+D75/20+E75/50+F75/50+G75/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76">
         <v>243</v>
@@ -4467,15 +4243,15 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G76">
@@ -4491,16 +4267,13 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C76/80+D76/20+E76/50+F76/50+G76/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77">
         <v>243</v>
@@ -4533,16 +4306,13 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C77/80+D77/20+E77/50+F77/50+G77/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78">
         <v>243</v>
@@ -4575,16 +4345,13 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="5"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C78/80+D78/20+E78/50+F78/50+G78/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79">
         <v>243</v>
@@ -4617,16 +4384,13 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C79/80+D79/20+E79/50+F79/50+G79/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80">
         <v>243</v>
@@ -4643,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="F80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G80">
@@ -4659,16 +4423,13 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C80/80+D80/20+E80/50+F80/50+G80/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81">
         <v>243</v>
@@ -4677,15 +4438,15 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81">
@@ -4701,16 +4462,13 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C81/80+D81/20+E81/50+F81/50+G81/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B82">
         <v>243</v>
@@ -4743,16 +4501,13 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C82/80+D82/20+E82/50+F82/50+G82/1)/5*2.5,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83">
         <v>243</v>
@@ -4769,7 +4524,7 @@
         <v>23</v>
       </c>
       <c r="F83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G83">
@@ -4785,16 +4540,13 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C83/80+D83/20+E83/50+F83/50+G83/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84">
         <v>243</v>
@@ -4803,15 +4555,15 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G84">
@@ -4827,16 +4579,13 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C84/80+D84/20+E84/50+F84/50+G84/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85">
         <v>243</v>
@@ -4845,15 +4594,15 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G85">
@@ -4869,16 +4618,13 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C85/80+D85/20+E85/50+F85/50+G85/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86">
         <v>243</v>
@@ -4911,16 +4657,13 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C86/80+D86/20+E86/50+F86/50+G86/1)/5*2.5,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B87">
         <v>243</v>
@@ -4953,16 +4696,13 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C87/80+D87/20+E87/50+F87/50+G87/1)/5*2.5,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88">
         <v>243</v>
@@ -4975,11 +4715,11 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G88">
@@ -4995,16 +4735,13 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="5"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C88/80+D88/20+E88/50+F88/50+G88/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>243</v>
@@ -5017,11 +4754,11 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G89">
@@ -5037,16 +4774,13 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C89/80+D89/20+E89/50+F89/50+G89/1)/5*2.5,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B90">
         <v>243</v>
@@ -5079,16 +4813,13 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C90/80+D90/20+E90/50+F90/50+G90/1)/5*2.5,1)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B91">
         <v>243</v>
@@ -5097,15 +4828,15 @@
         <v>57</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G91">
@@ -5121,16 +4852,13 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C91/80+D91/20+E91/50+F91/50+G91/1)/5*2.5,1)</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92">
         <v>243</v>
@@ -5163,16 +4891,13 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="5"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C92/80+D92/20+E92/50+F92/50+G92/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93">
         <v>243</v>
@@ -5185,11 +4910,11 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G93">
@@ -5205,16 +4930,13 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C93/80+D93/20+E93/50+F93/50+G93/1)/5*2.5,1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94">
         <v>243</v>
@@ -5247,16 +4969,13 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C94/80+D94/20+E94/50+F94/50+G94/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>243</v>
@@ -5289,16 +5008,13 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="5"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C95/80+D95/20+E95/50+F95/50+G95/1)/5*2.5,1)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>243</v>
@@ -5307,15 +5023,15 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G96">
@@ -5331,16 +5047,13 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C96/80+D96/20+E96/50+F96/50+G96/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97">
         <v>243</v>
@@ -5349,15 +5062,15 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G97">
@@ -5373,16 +5086,13 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C97/80+D97/20+E97/50+F97/50+G97/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>243</v>
@@ -5395,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F98">
@@ -5415,16 +5125,13 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C98/80+D98/20+E98/50+F98/50+G98/1)/5*2.5,1)</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99">
         <v>243</v>
@@ -5433,15 +5140,15 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G99">
@@ -5457,16 +5164,13 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C99/80+D99/20+E99/50+F99/50+G99/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>243</v>
@@ -5475,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G100">
@@ -5499,16 +5203,13 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C100/80+D100/20+E100/50+F100/50+G100/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B101">
         <v>243</v>
@@ -5541,16 +5242,13 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="5"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C101/80+D101/20+E101/50+F101/50+G101/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>243</v>
@@ -5559,15 +5257,15 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G102">
@@ -5583,16 +5281,13 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C102/80+D102/20+E102/50+F102/50+G102/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>244</v>
@@ -5625,16 +5320,13 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C103/80+D103/20+E103/50+F103/50+G103/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>244</v>
@@ -5643,15 +5335,15 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:D133" si="9">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D104:D133" si="7">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G104">
@@ -5667,16 +5359,13 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C104/80+D104/20+E104/50+F104/50+G104/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>244</v>
@@ -5693,7 +5382,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G105">
@@ -5709,16 +5398,13 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="5"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C105/80+D105/20+E105/50+F105/50+G105/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106">
         <v>244</v>
@@ -5727,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="D106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E106">
@@ -5735,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="F106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G106">
@@ -5751,16 +5437,13 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C106/80+D106/20+E106/50+F106/50+G106/1)/5*2.5,1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B107">
         <v>244</v>
@@ -5769,15 +5452,15 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107">
@@ -5793,22 +5476,20 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C107/80+D107/20+E107/50+F107/50+G107/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>244</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <f>MIN(ROUNDUP(72*1.1,0),75)</f>
+        <v>75</v>
       </c>
       <c r="D108">
         <f>MIN(ROUNDUP(19*1.1,0),20)</f>
@@ -5835,16 +5516,13 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C108/80+D108/20+E108/50+F108/50+G108/1)/5*2.5,1)</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>244</v>
@@ -5877,16 +5555,13 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C109/80+D109/20+E109/50+F109/50+G109/1)/5*2.5,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B110">
         <v>244</v>
@@ -5903,7 +5578,7 @@
         <v>17</v>
       </c>
       <c r="F110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G110">
@@ -5919,16 +5594,13 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="5"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C110/80+D110/20+E110/50+F110/50+G110/1)/5*2.5,1)</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>244</v>
@@ -5961,16 +5633,13 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C111/80+D111/20+E111/50+F111/50+G111/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>244</v>
@@ -6003,22 +5672,20 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C112/80+D112/20+E112/50+F112/50+G112/1)/5*2.5,1)</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>244</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <f>MIN(ROUNDUP(57*1.1,0),75)</f>
+        <v>63</v>
       </c>
       <c r="D113">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
@@ -6045,16 +5712,13 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C113/80+D113/20+E113/50+F113/50+G113/1)/5*2.5,1)</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>244</v>
@@ -6063,7 +5727,7 @@
         <v>71</v>
       </c>
       <c r="D114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E114">
@@ -6071,7 +5735,7 @@
         <v>32</v>
       </c>
       <c r="F114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G114">
@@ -6087,16 +5751,13 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="5"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C114/80+D114/20+E114/50+F114/50+G114/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B115">
         <v>244</v>
@@ -6105,7 +5766,7 @@
         <v>66</v>
       </c>
       <c r="D115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E115">
@@ -6113,7 +5774,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G115">
@@ -6129,16 +5790,13 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="5"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C115/80+D115/20+E115/50+F115/50+G115/1)/5*2.5,1)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <v>244</v>
@@ -6147,15 +5805,15 @@
         <v>61</v>
       </c>
       <c r="D116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G116">
@@ -6171,22 +5829,20 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C116/80+D116/20+E116/50+F116/50+G116/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B117">
         <v>244</v>
       </c>
       <c r="C117">
-        <v>49</v>
+        <f>MIN(ROUNDUP(60*1.1,0),75)</f>
+        <v>66</v>
       </c>
       <c r="D117">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
@@ -6213,16 +5869,13 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C117/80+D117/20+E117/50+F117/50+G117/1)/5*2.5,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118">
         <v>244</v>
@@ -6232,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="D118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E118">
@@ -6240,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="F118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G118">
@@ -6256,16 +5909,13 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C118/80+D118/20+E118/50+F118/50+G118/1)/5*2.5,1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B119">
         <v>244</v>
@@ -6274,15 +5924,15 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G119">
@@ -6298,16 +5948,13 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C119/80+D119/20+E119/50+F119/50+G119/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B120">
         <v>244</v>
@@ -6340,16 +5987,13 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C120/80+D120/20+E120/50+F120/50+G120/1)/5*2.5,1)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B121">
         <v>244</v>
@@ -6358,15 +6002,15 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G121">
@@ -6382,16 +6026,13 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C121/80+D121/20+E121/50+F121/50+G121/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B122">
         <v>244</v>
@@ -6409,7 +6050,7 @@
         <v>32</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G122">
@@ -6425,16 +6066,13 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C122/80+D122/20+E122/50+F122/50+G122/1)/5*2.5,1)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B123">
         <v>244</v>
@@ -6444,15 +6082,15 @@
         <v>24</v>
       </c>
       <c r="D123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G123">
@@ -6468,22 +6106,19 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C123/80+D123/20+E123/50+F123/50+G123/1)/5*2.5,1)</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B124">
         <v>244</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C132" si="10">MIN(ROUNDUP(0*1.1,0),78)</f>
+        <f t="shared" ref="C124:C132" si="8">MIN(ROUNDUP(0*1.1,0),78)</f>
         <v>0</v>
       </c>
       <c r="D124">
@@ -6495,7 +6130,7 @@
         <v>15</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G124">
@@ -6511,16 +6146,13 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C124/80+D124/20+E124/50+F124/50+G124/1)/5*2.5,1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B125">
         <v>244</v>
@@ -6530,15 +6162,15 @@
         <v>71</v>
       </c>
       <c r="D125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G125">
@@ -6554,34 +6186,31 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <f t="shared" si="5"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C125/80+D125/20+E125/50+F125/50+G125/1)/5*2.5,1)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B126">
         <v>244</v>
       </c>
       <c r="C126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G126">
@@ -6597,16 +6226,13 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C126/80+D126/20+E126/50+F126/50+G126/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>244</v>
@@ -6616,7 +6242,7 @@
         <v>49</v>
       </c>
       <c r="D127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E127">
@@ -6624,7 +6250,7 @@
         <v>32</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G127">
@@ -6640,22 +6266,19 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C127/80+D127/20+E127/50+F127/50+G127/1)/5*2.5,1)</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B128">
         <v>244</v>
       </c>
       <c r="C128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D128">
@@ -6663,11 +6286,11 @@
         <v>7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G128">
@@ -6683,16 +6306,13 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C128/80+D128/20+E128/50+F128/50+G128/1)/5*2.5,1)</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B129">
         <v>244</v>
@@ -6702,15 +6322,15 @@
         <v>57</v>
       </c>
       <c r="D129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G129">
@@ -6726,34 +6346,31 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C129/80+D129/20+E129/50+F129/50+G129/1)/5*2.5,1)</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B130">
         <v>244</v>
       </c>
       <c r="C130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G130">
@@ -6769,16 +6386,13 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <f t="shared" si="5"/>
+        <f>ROUNDUP(1+(C130/80+D130/20+E130/50+F130/50+G130/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B131">
         <v>244</v>
@@ -6788,7 +6402,7 @@
         <v>46</v>
       </c>
       <c r="D131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E131">
@@ -6796,7 +6410,7 @@
         <v>44</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F134" si="11">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F131:F134" si="9">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G131">
@@ -6812,36 +6426,33 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <f t="shared" ref="L131:L134" si="12">ROUNDUP(1+(C131/80+D131/20+E131/50+F131/50+G131/1+H131/1)/6*2.5,1)</f>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+        <f>ROUNDUP(1+(C131/80+D131/20+E131/50+F131/50+G131/1)/5*2.5,1)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B132">
         <v>244</v>
       </c>
       <c r="C132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:E134" si="10">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <v>0</v>
+      </c>
+      <c r="F132">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E132">
-        <f t="shared" ref="E132:E134" si="13">MIN(ROUNDUP(0*1.15,0),48)</f>
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="G132">
         <v>0</v>
       </c>
@@ -6855,16 +6466,13 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <f t="shared" si="12"/>
+        <f>ROUNDUP(1+(C132/80+D132/20+E132/50+F132/50+G132/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B133">
         <v>244</v>
@@ -6874,17 +6482,17 @@
         <v>46</v>
       </c>
       <c r="D133">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F133">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="G133">
         <v>0</v>
       </c>
@@ -6898,16 +6506,13 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <f t="shared" si="12"/>
+        <f>ROUNDUP(1+(C133/80+D133/20+E133/50+F133/50+G133/1)/5*2.5,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B134">
         <v>244</v>
@@ -6921,11 +6526,11 @@
         <v>20</v>
       </c>
       <c r="E134">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G134">
@@ -6941,21 +6546,12 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <f t="shared" si="12"/>
-        <v>1.7000000000000002</v>
+        <f>ROUNDUP(1+(C134/80+D134/20+E134/50+F134/50+G134/1)/5*2.5,1)</f>
+        <v>1.9000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L134">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="244"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K134"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f>ROUNDUP(1+(C2/80+D2/20+E2/50+F2/50+G2/1)/5*2.5,1)</f>
+        <f t="shared" ref="K2:K33" si="0">ROUNDUP(1+(C2/80+D2/20+E2/50+F2/50+G2/1)/5*2.5,1)</f>
         <v>1.6</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f>ROUNDUP(1+(C3/80+D3/20+E3/50+F3/50+G3/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
@@ -1430,15 +1430,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D33" si="0">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D4:D33" si="1">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E66" si="1">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E4:E66" si="2">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F66" si="2">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F4:F66" si="3">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>ROUNDUP(1+(C4/80+D4/20+E4/50+F4/50+G4/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1469,31 +1469,31 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>ROUNDUP(1+(C5/80+D5/20+E5/50+F5/50+G5/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G6">
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>ROUNDUP(1+(C6/80+D6/20+E6/50+F6/50+G6/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1547,31 +1547,31 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>ROUNDUP(1+(C7/80+D7/20+E7/50+F7/50+G7/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>ROUNDUP(1+(C8/80+D8/20+E8/50+F8/50+G8/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1625,31 +1625,31 @@
         <v>59</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>ROUNDUP(1+(C9/80+D9/20+E9/50+F9/50+G9/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f>ROUNDUP(1+(C10/80+D10/20+E10/50+F10/50+G10/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f>ROUNDUP(1+(C11/80+D11/20+E11/50+F11/50+G11/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
@@ -1742,31 +1742,31 @@
         <v>58</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>ROUNDUP(1+(C12/80+D12/20+E12/50+F12/50+G12/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -1781,31 +1781,31 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>ROUNDUP(1+(C13/80+D13/20+E13/50+F13/50+G13/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1820,31 +1820,31 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>ROUNDUP(1+(C14/80+D14/20+E14/50+F14/50+G14/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f>ROUNDUP(1+(C15/80+D15/20+E15/50+F15/50+G15/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -1902,11 +1902,11 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G16">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f>ROUNDUP(1+(C16/80+D16/20+E16/50+F16/50+G16/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f>ROUNDUP(1+(C17/80+D17/20+E17/50+F17/50+G17/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
     </row>
@@ -1976,31 +1976,31 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f>ROUNDUP(1+(C18/80+D18/20+E18/50+F18/50+G18/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>ROUNDUP(1+(C19/80+D19/20+E19/50+F19/50+G19/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f>ROUNDUP(1+(C20/80+D20/20+E20/50+F20/50+G20/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
     </row>
@@ -2094,31 +2094,31 @@
         <v>55</v>
       </c>
       <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>ROUNDUP(1+(C21/80+D21/20+E21/50+F21/50+G21/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -2133,31 +2133,31 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f>ROUNDUP(1+(C22/80+D22/20+E22/50+F22/50+G22/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2172,31 +2172,31 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>ROUNDUP(1+(C23/80+D23/20+E23/50+F23/50+G23/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2211,31 +2211,31 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>ROUNDUP(1+(C24/80+D24/20+E24/50+F24/50+G24/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f>ROUNDUP(1+(C25/80+D25/20+E25/50+F25/50+G25/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2289,31 +2289,31 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>ROUNDUP(1+(C26/80+D26/20+E26/50+F26/50+G26/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2328,31 +2328,31 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f>ROUNDUP(1+(C27/80+D27/20+E27/50+F27/50+G27/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2367,31 +2367,31 @@
         <v>0</v>
       </c>
       <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>ROUNDUP(1+(C28/80+D28/20+E28/50+F28/50+G28/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>ROUNDUP(1+(C29/80+D29/20+E29/50+F29/50+G29/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>ROUNDUP(1+(C30/80+D30/20+E30/50+F30/50+G30/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
     </row>
@@ -2484,31 +2484,31 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f>ROUNDUP(1+(C31/80+D31/20+E31/50+F31/50+G31/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <f>ROUNDUP(1+(C32/80+D32/20+E32/50+F32/50+G32/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2562,11 +2562,11 @@
         <v>64</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <f>ROUNDUP(1+(C33/80+D33/20+E33/50+F33/50+G33/1)/5*2.5,1)</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <f>ROUNDUP(1+(C34/80+D34/20+E34/50+F34/50+G34/1)/5*2.5,1)</f>
+        <f t="shared" ref="K34:K65" si="4">ROUNDUP(1+(C34/80+D34/20+E34/50+F34/50+G34/1)/5*2.5,1)</f>
         <v>2.9</v>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <f>ROUNDUP(1+(C35/80+D35/20+E35/50+F35/50+G35/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f>ROUNDUP(1+(C36/80+D36/20+E36/50+F36/50+G36/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f>ROUNDUP(1+(C37/80+D37/20+E37/50+F37/50+G37/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
     </row>
@@ -2757,15 +2757,15 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D66" si="3">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D38:D66" si="5">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G38">
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f>ROUNDUP(1+(C38/80+D38/20+E38/50+F38/50+G38/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2796,17 +2796,17 @@
         <v>36</v>
       </c>
       <c r="D39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G39">
         <v>0</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f>ROUNDUP(1+(C39/80+D39/20+E39/50+F39/50+G39/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>30</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G40">
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f>ROUNDUP(1+(C40/80+D40/20+E40/50+F40/50+G40/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2874,17 +2874,17 @@
         <v>0</v>
       </c>
       <c r="D41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f>ROUNDUP(1+(C41/80+D41/20+E41/50+F41/50+G41/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f>ROUNDUP(1+(C42/80+D42/20+E42/50+F42/50+G42/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2956,11 +2956,11 @@
         <v>18</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G43">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f>ROUNDUP(1+(C43/80+D43/20+E43/50+F43/50+G43/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
         <v>0</v>
       </c>
       <c r="D44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f>ROUNDUP(1+(C44/80+D44/20+E44/50+F44/50+G44/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G45">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f>ROUNDUP(1+(C45/80+D45/20+E45/50+F45/50+G45/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3069,17 +3069,17 @@
         <v>66</v>
       </c>
       <c r="D46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f>ROUNDUP(1+(C46/80+D46/20+E46/50+F46/50+G46/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f>ROUNDUP(1+(C47/80+D47/20+E47/50+F47/50+G47/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
         <v>70</v>
       </c>
       <c r="D48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G48">
         <v>0</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f>ROUNDUP(1+(C48/80+D48/20+E48/50+F48/50+G48/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3186,17 +3186,17 @@
         <v>48</v>
       </c>
       <c r="D49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f>ROUNDUP(1+(C49/80+D49/20+E49/50+F49/50+G49/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.3</v>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
         <v>28</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G50">
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f>ROUNDUP(1+(C50/80+D50/20+E50/50+F50/50+G50/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f>ROUNDUP(1+(C51/80+D51/20+E51/50+F51/50+G51/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
     </row>
@@ -3304,17 +3304,17 @@
         <v>0</v>
       </c>
       <c r="D52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f>ROUNDUP(1+(C52/80+D52/20+E52/50+F52/50+G52/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f>ROUNDUP(1+(C53/80+D53/20+E53/50+F53/50+G53/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3386,11 +3386,11 @@
         <v>19</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G54">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f>ROUNDUP(1+(C54/80+D54/20+E54/50+F54/50+G54/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <f>ROUNDUP(1+(C55/80+D55/20+E55/50+F55/50+G55/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <f>ROUNDUP(1+(C56/80+D56/20+E56/50+F56/50+G56/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
         <v>0</v>
       </c>
       <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G57">
         <v>0</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <f>ROUNDUP(1+(C57/80+D57/20+E57/50+F57/50+G57/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3542,11 +3542,11 @@
         <v>20</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G58">
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <f>ROUNDUP(1+(C58/80+D58/20+E58/50+F58/50+G58/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3577,17 +3577,17 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G59">
         <v>0</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <f>ROUNDUP(1+(C59/80+D59/20+E59/50+F59/50+G59/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
         <v>0</v>
       </c>
       <c r="D60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G60">
         <v>0</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <f>ROUNDUP(1+(C60/80+D60/20+E60/50+F60/50+G60/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <f>ROUNDUP(1+(C61/80+D61/20+E61/50+F61/50+G61/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f>ROUNDUP(1+(C62/80+D62/20+E62/50+F62/50+G62/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
         <v>54</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E63">
@@ -3741,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G63">
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <f>ROUNDUP(1+(C63/80+D63/20+E63/50+F63/50+G63/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>1.6</v>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f>ROUNDUP(1+(C64/80+D64/20+E64/50+F64/50+G64/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.7</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f>ROUNDUP(1+(C65/80+D65/20+E65/50+F65/50+G65/1)/5*2.5,1)</f>
+        <f t="shared" si="4"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -3851,17 +3851,17 @@
         <v>0</v>
       </c>
       <c r="D66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G66">
         <v>0</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <f>ROUNDUP(1+(C66/80+D66/20+E66/50+F66/50+G66/1)/5*2.5,1)</f>
+        <f t="shared" ref="K66:K97" si="6">ROUNDUP(1+(C66/80+D66/20+E66/50+F66/50+G66/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <f>ROUNDUP(1+(C67/80+D67/20+E67/50+F67/50+G67/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
     </row>
@@ -3938,8 +3938,8 @@
         <v>15</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F130" si="4">MIN(ROUNDUP(0*1.15,0),48)</f>
-        <v>0</v>
+        <f>MIN(ROUNDUP(25*1.15,0),48)</f>
+        <v>29</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3954,8 +3954,8 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <f>ROUNDUP(1+(C68/80+D68/20+E68/50+F68/50+G68/1)/5*2.5,1)</f>
-        <v>2.1</v>
+        <f t="shared" si="6"/>
+        <v>2.4</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -3974,7 +3974,7 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E130" si="5">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E69:E130" si="7">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F69">
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <f>ROUNDUP(1+(C69/80+D69/20+E69/50+F69/50+G69/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <f>ROUNDUP(1+(C70/80+D70/20+E70/50+F70/50+G70/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F68:F130" si="8">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G71">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <f>ROUNDUP(1+(C71/80+D71/20+E71/50+F71/50+G71/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
     </row>
@@ -4087,15 +4087,15 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D102" si="6">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D72:D102" si="9">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G72">
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <f>ROUNDUP(1+(C72/80+D72/20+E72/50+F72/50+G72/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -4126,31 +4126,31 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f>ROUNDUP(1+(C73/80+D73/20+E73/50+F73/50+G73/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4169,11 +4169,11 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G74">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <f>ROUNDUP(1+(C74/80+D74/20+E74/50+F74/50+G74/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <f>ROUNDUP(1+(C75/80+D75/20+E75/50+F75/50+G75/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4243,31 +4243,31 @@
         <v>0</v>
       </c>
       <c r="D76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f>ROUNDUP(1+(C76/80+D76/20+E76/50+F76/50+G76/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <f>ROUNDUP(1+(C77/80+D77/20+E77/50+F77/50+G77/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <f>ROUNDUP(1+(C78/80+D78/20+E78/50+F78/50+G78/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <f>ROUNDUP(1+(C79/80+D79/20+E79/50+F79/50+G79/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.6</v>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
         <v>25</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G80">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <f>ROUNDUP(1+(C80/80+D80/20+E80/50+F80/50+G80/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4438,31 +4438,31 @@
         <v>0</v>
       </c>
       <c r="D81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f>ROUNDUP(1+(C81/80+D81/20+E81/50+F81/50+G81/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <f>ROUNDUP(1+(C82/80+D82/20+E82/50+F82/50+G82/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
         <v>23</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G83">
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <f>ROUNDUP(1+(C83/80+D83/20+E83/50+F83/50+G83/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -4555,31 +4555,31 @@
         <v>0</v>
       </c>
       <c r="D84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f>ROUNDUP(1+(C84/80+D84/20+E84/50+F84/50+G84/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4594,31 +4594,31 @@
         <v>0</v>
       </c>
       <c r="D85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f>ROUNDUP(1+(C85/80+D85/20+E85/50+F85/50+G85/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <f>ROUNDUP(1+(C86/80+D86/20+E86/50+F86/50+G86/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <f>ROUNDUP(1+(C87/80+D87/20+E87/50+F87/50+G87/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
     </row>
@@ -4715,11 +4715,11 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G88">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <f>ROUNDUP(1+(C88/80+D88/20+E88/50+F88/50+G88/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
     </row>
@@ -4754,11 +4754,11 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G89">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <f>ROUNDUP(1+(C89/80+D89/20+E89/50+F89/50+G89/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <f>ROUNDUP(1+(C90/80+D90/20+E90/50+F90/50+G90/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.8000000000000003</v>
       </c>
     </row>
@@ -4828,31 +4828,31 @@
         <v>57</v>
       </c>
       <c r="D91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <f>ROUNDUP(1+(C91/80+D91/20+E91/50+F91/50+G91/1)/5*2.5,1)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <f>ROUNDUP(1+(C92/80+D92/20+E92/50+F92/50+G92/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -4910,11 +4910,11 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G93">
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <f>ROUNDUP(1+(C93/80+D93/20+E93/50+F93/50+G93/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <f>ROUNDUP(1+(C94/80+D94/20+E94/50+F94/50+G94/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <f>ROUNDUP(1+(C95/80+D95/20+E95/50+F95/50+G95/1)/5*2.5,1)</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -5023,31 +5023,31 @@
         <v>0</v>
       </c>
       <c r="D96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <f>ROUNDUP(1+(C96/80+D96/20+E96/50+F96/50+G96/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5062,31 +5062,31 @@
         <v>0</v>
       </c>
       <c r="D97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <f>ROUNDUP(1+(C97/80+D97/20+E97/50+F97/50+G97/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
         <v>18</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F98">
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <f>ROUNDUP(1+(C98/80+D98/20+E98/50+F98/50+G98/1)/5*2.5,1)</f>
+        <f t="shared" ref="K98:K134" si="10">ROUNDUP(1+(C98/80+D98/20+E98/50+F98/50+G98/1)/5*2.5,1)</f>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -5140,15 +5140,15 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G99">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <f>ROUNDUP(1+(C99/80+D99/20+E99/50+F99/50+G99/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5179,15 +5179,15 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G100">
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f>ROUNDUP(1+(C100/80+D100/20+E100/50+F100/50+G100/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <f>ROUNDUP(1+(C101/80+D101/20+E101/50+F101/50+G101/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.6</v>
       </c>
     </row>
@@ -5257,15 +5257,15 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G102">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <f>ROUNDUP(1+(C102/80+D102/20+E102/50+F102/50+G102/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <f>ROUNDUP(1+(C103/80+D103/20+E103/50+F103/50+G103/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
@@ -5335,15 +5335,15 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:D133" si="7">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D104:D133" si="11">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G104">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <f>ROUNDUP(1+(C104/80+D104/20+E104/50+F104/50+G104/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5382,7 +5382,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G105">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <f>ROUNDUP(1+(C105/80+D105/20+E105/50+F105/50+G105/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="D106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E106">
@@ -5421,7 +5421,7 @@
         <v>29</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G106">
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <f>ROUNDUP(1+(C106/80+D106/20+E106/50+F106/50+G106/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -5452,15 +5452,15 @@
         <v>0</v>
       </c>
       <c r="D107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G107">
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <f>ROUNDUP(1+(C107/80+D107/20+E107/50+F107/50+G107/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <f>ROUNDUP(1+(C108/80+D108/20+E108/50+F108/50+G108/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <f>ROUNDUP(1+(C109/80+D109/20+E109/50+F109/50+G109/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
         <v>17</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G110">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <f>ROUNDUP(1+(C110/80+D110/20+E110/50+F110/50+G110/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <f>ROUNDUP(1+(C111/80+D111/20+E111/50+F111/50+G111/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.6</v>
       </c>
     </row>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <f>ROUNDUP(1+(C112/80+D112/20+E112/50+F112/50+G112/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <f>ROUNDUP(1+(C113/80+D113/20+E113/50+F113/50+G113/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
         <v>71</v>
       </c>
       <c r="D114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E114">
@@ -5735,7 +5735,7 @@
         <v>32</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G114">
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <f>ROUNDUP(1+(C114/80+D114/20+E114/50+F114/50+G114/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
     </row>
@@ -5766,7 +5766,7 @@
         <v>66</v>
       </c>
       <c r="D115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E115">
@@ -5774,7 +5774,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G115">
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <f>ROUNDUP(1+(C115/80+D115/20+E115/50+F115/50+G115/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -5805,15 +5805,15 @@
         <v>61</v>
       </c>
       <c r="D116">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G116">
@@ -5829,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <f>ROUNDUP(1+(C116/80+D116/20+E116/50+F116/50+G116/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <f>ROUNDUP(1+(C117/80+D117/20+E117/50+F117/50+G117/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
         <v>49</v>
       </c>
       <c r="D118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E118">
@@ -5893,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G118">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <f>ROUNDUP(1+(C118/80+D118/20+E118/50+F118/50+G118/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -5924,15 +5924,15 @@
         <v>0</v>
       </c>
       <c r="D119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E119">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E119">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G119">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <f>ROUNDUP(1+(C119/80+D119/20+E119/50+F119/50+G119/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <f>ROUNDUP(1+(C120/80+D120/20+E120/50+F120/50+G120/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.6</v>
       </c>
     </row>
@@ -6002,15 +6002,15 @@
         <v>0</v>
       </c>
       <c r="D121">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E121">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G121">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <f>ROUNDUP(1+(C121/80+D121/20+E121/50+F121/50+G121/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6050,7 +6050,7 @@
         <v>32</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G122">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <f>ROUNDUP(1+(C122/80+D122/20+E122/50+F122/50+G122/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -6082,15 +6082,15 @@
         <v>24</v>
       </c>
       <c r="D123">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E123">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G123">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <f>ROUNDUP(1+(C123/80+D123/20+E123/50+F123/50+G123/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
         <v>244</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C132" si="8">MIN(ROUNDUP(0*1.1,0),78)</f>
+        <f t="shared" ref="C124:C132" si="12">MIN(ROUNDUP(0*1.1,0),78)</f>
         <v>0</v>
       </c>
       <c r="D124">
@@ -6130,7 +6130,7 @@
         <v>15</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G124">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <f>ROUNDUP(1+(C124/80+D124/20+E124/50+F124/50+G124/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -6162,15 +6162,15 @@
         <v>71</v>
       </c>
       <c r="D125">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E125">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G125">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <f>ROUNDUP(1+(C125/80+D125/20+E125/50+F125/50+G125/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
@@ -6198,21 +6198,21 @@
         <v>244</v>
       </c>
       <c r="C126">
+        <f>MIN(ROUNDUP(46*1.1,0),78)</f>
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D126">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G126">
         <v>0</v>
       </c>
@@ -6226,8 +6226,8 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <f>ROUNDUP(1+(C126/80+D126/20+E126/50+F126/50+G126/1)/5*2.5,1)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
@@ -6242,7 +6242,7 @@
         <v>49</v>
       </c>
       <c r="D127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E127">
@@ -6250,7 +6250,7 @@
         <v>32</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G127">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <f>ROUNDUP(1+(C127/80+D127/20+E127/50+F127/50+G127/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -6278,7 +6278,7 @@
         <v>244</v>
       </c>
       <c r="C128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D128">
@@ -6286,11 +6286,11 @@
         <v>7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G128">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <f>ROUNDUP(1+(C128/80+D128/20+E128/50+F128/50+G128/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -6322,15 +6322,15 @@
         <v>57</v>
       </c>
       <c r="D129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G129">
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <f>ROUNDUP(1+(C129/80+D129/20+E129/50+F129/50+G129/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -6358,21 +6358,21 @@
         <v>244</v>
       </c>
       <c r="C130">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="D130">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G130">
         <v>0</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <f>ROUNDUP(1+(C130/80+D130/20+E130/50+F130/50+G130/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
         <v>46</v>
       </c>
       <c r="D131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E131">
@@ -6410,7 +6410,7 @@
         <v>44</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F134" si="9">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F131:F134" si="13">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G131">
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f>ROUNDUP(1+(C131/80+D131/20+E131/50+F131/50+G131/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
     </row>
@@ -6438,19 +6438,19 @@
         <v>244</v>
       </c>
       <c r="C132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E134" si="10">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E132:E134" si="14">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G132">
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <f>ROUNDUP(1+(C132/80+D132/20+E132/50+F132/50+G132/1)/5*2.5,1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -6482,31 +6482,31 @@
         <v>46</v>
       </c>
       <c r="D133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <f>ROUNDUP(1+(C133/80+D133/20+E133/50+F133/50+G133/1)/5*2.5,1)</f>
         <v>1.3</v>
       </c>
     </row>
@@ -6526,27 +6526,27 @@
         <v>20</v>
       </c>
       <c r="E134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <f>ROUNDUP(1+(C134/80+D134/20+E134/50+F134/50+G134/1)/5*2.5,1)</f>
         <v>1.9000000000000001</v>
       </c>
     </row>

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Tabel_Prob_Stat" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabel_Prob_Stat!$A$1:$K$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabel_Prob_Stat!$A$1:$K$139</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Nume</t>
   </si>
@@ -454,6 +454,24 @@
   </si>
   <si>
     <t>Tema_Speciala</t>
+  </si>
+  <si>
+    <t>GHIUR ALEXANDRU</t>
+  </si>
+  <si>
+    <t>DEACONESCU ANA-MARIA-ELIZA</t>
+  </si>
+  <si>
+    <t>SIMIONOV ALEXANDRU</t>
+  </si>
+  <si>
+    <t>JOSE MARTINEZ JINENEZ</t>
+  </si>
+  <si>
+    <t>ERASMUS</t>
+  </si>
+  <si>
+    <t>lipseste</t>
   </si>
 </sst>
 </file>
@@ -1294,19 +1312,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
     <col min="7" max="8" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1371,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <f>MIN(ROUNDUP(8*1.1,0),20)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <f>MIN(ROUNDUP(0*1.15,0),48)</f>
@@ -1364,23 +1382,31 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K33" si="0">ROUNDUP(1+(C2/80+D2/20+E2/50+F2/50+G2/1)/5*2.5,1)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <f>ROUND(MIN(MIN((C2/80+D2/20+E2/50+F2/50+G2/50)/5*2.5+H2/180*2,3.5)+1+I2/40*1.5+J2/10,10),0)</f>
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <f>MIN((C2/80+D2/20+E2/50+F2/50+G2/50)/5*2.5+H2/180*2,3.5)</f>
+        <v>2.6202777777777779</v>
+      </c>
+      <c r="N2">
+        <f>MIN(MIN((C2/80+D2/20+E2/50+F2/50+G2/50)/5*2.5+H2/180*2,3.5)+1+I2/40*1.5+J2/10,10)</f>
+        <v>4.5202777777777783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1403,23 +1429,31 @@
         <v>36</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" ref="K3:K66" si="0">ROUND(MIN(MIN((C3/80+D3/20+E3/50+F3/50+G3/50)/5*2.5+H3/180*2,3.5)+1+I3/40*1.5+J3/10,10),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="1">MIN((C3/80+D3/20+E3/50+F3/50+G3/50)/5*2.5+H3/180*2,3.5)</f>
+        <v>2.6015277777777777</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="2">MIN(MIN((C3/80+D3/20+E3/50+F3/50+G3/50)/5*2.5+H3/180*2,3.5)+1+I3/40*1.5+J3/10,10)</f>
+        <v>8.3140277777777776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1430,15 +1464,15 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D33" si="1">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D4:D33" si="3">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E66" si="2">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E4:E66" si="4">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F66" si="3">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="F4:F66" si="5">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -1457,8 +1491,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1469,15 +1511,15 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G5">
@@ -1496,8 +1538,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1516,27 +1566,35 @@
         <v>33</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2.6980555555555554</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>7.3230555555555554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1547,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7">
@@ -1574,8 +1632,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1594,27 +1660,35 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>2.0652777777777778</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>5.990277777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1625,35 +1699,43 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>2.646527777777778</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5.9465277777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1676,23 +1758,31 @@
         <v>45</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>3.1612499999999999</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1715,23 +1805,31 @@
         <v>43</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>2.6341666666666663</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>7.0466666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1742,35 +1840,43 @@
         <v>58</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.6736111111111112</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>7.2861111111111114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1781,15 +1887,15 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -1808,8 +1914,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1820,15 +1934,15 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G14">
@@ -1847,8 +1961,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1871,23 +1993,31 @@
         <v>34</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1.8079166666666668</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>6.1204166666666673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1902,11 +2032,11 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G16">
@@ -1919,14 +2049,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.78125</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>4.6812500000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1949,23 +2087,31 @@
         <v>42</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>3.1026388888888889</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>9.4026388888888874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1976,15 +2122,15 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G18">
@@ -2003,8 +2149,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2027,23 +2181,31 @@
         <v>47</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2067,23 +2229,31 @@
         <v>48</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>3.1038888888888887</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>9.9288888888888884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2094,35 +2264,43 @@
         <v>55</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1.5659722222222223</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>6.1784722222222221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2133,15 +2311,15 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22">
@@ -2160,8 +2338,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2172,15 +2358,15 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23">
@@ -2199,8 +2385,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2211,15 +2405,15 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24">
@@ -2238,8 +2432,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2254,7 +2456,7 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25">
@@ -2262,23 +2464,31 @@
         <v>35</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>2.2340277777777779</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>6.7590277777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2289,15 +2499,15 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G26">
@@ -2316,8 +2526,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2328,15 +2546,15 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G27">
@@ -2355,8 +2573,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2367,35 +2593,43 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>1.8444444444444446</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>7.656944444444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2418,23 +2652,31 @@
         <v>48</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2457,23 +2699,31 @@
         <v>40</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>3.2013888888888888</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>9.50138888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2484,15 +2734,15 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31">
@@ -2511,8 +2761,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2527,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F32">
@@ -2535,23 +2793,31 @@
         <v>45</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>7.3625000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2562,11 +2828,11 @@
         <v>64</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -2577,20 +2843,28 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>1.9522222222222223</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>6.9772222222222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2613,23 +2887,31 @@
         <v>46</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K34">
-        <f t="shared" ref="K34:K65" si="4">ROUNDUP(1+(C34/80+D34/20+E34/50+F34/50+G34/1)/5*2.5,1)</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>2.9976388888888885</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>8.9976388888888881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2652,23 +2934,31 @@
         <v>48</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>2.9777777777777779</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>9.3777777777777782</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2694,20 +2984,28 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>3.1902777777777773</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>8.3402777777777768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2733,20 +3031,28 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>1.9793055555555557</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>7.0293055555555553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2757,35 +3063,43 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D66" si="5">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D38:D66" si="6">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2796,35 +3110,43 @@
         <v>36</v>
       </c>
       <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>1.1138888888888889</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.7638888888888893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2843,27 +3165,35 @@
         <v>30</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>2.927777777777778</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>7.740277777777778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2874,35 +3204,43 @@
         <v>0</v>
       </c>
       <c r="D41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2917,31 +3255,39 @@
         <v>20</v>
       </c>
       <c r="E42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>MIN(ROUNDUP(18*1.15,0),48)</f>
+        <v>21</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>75</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>2.0058333333333334</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>MIN(ROUNDUP(15*1.15,0),48)</f>
-        <v>18</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5.5058333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2956,31 +3302,39 @@
         <v>18</v>
       </c>
       <c r="E43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>140</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>31</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>2.6368055555555556</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.4868055555555557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2991,35 +3345,43 @@
         <v>0</v>
       </c>
       <c r="D44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.3555555555555556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3038,27 +3400,35 @@
         <v>28</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>2.3591666666666664</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>8.1591666666666658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3069,35 +3439,43 @@
         <v>66</v>
       </c>
       <c r="D46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E46">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>130</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>1.8569444444444443</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6.6069444444444443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3116,27 +3494,35 @@
         <v>29</v>
       </c>
       <c r="F47">
-        <f>MIN(ROUNDUP(29*1.15,0),48)</f>
-        <v>34</v>
+        <f>MIN(ROUNDUP(30*1.15,0),48)</f>
+        <v>35</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>3.4580555555555552</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>8.5080555555555542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3147,35 +3533,46 @@
         <v>70</v>
       </c>
       <c r="D48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E48">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>110</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>1.6597222222222223</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.6597222222222223</v>
+      </c>
+      <c r="O48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3186,35 +3583,43 @@
         <v>48</v>
       </c>
       <c r="D49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E49">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>160</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49">
+        <v>31</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>2.0777777777777775</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.3027777777777771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3233,27 +3638,35 @@
         <v>28</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>2.7959722222222223</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>8.0459722222222219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3277,23 +3690,31 @@
         <v>41</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>3.3270833333333334</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>8.8270833333333343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3304,35 +3725,43 @@
         <v>0</v>
       </c>
       <c r="D52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>150</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>2.166666666666667</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3347,7 +3776,7 @@
         <v>20</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -3358,20 +3787,28 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>2.800416666666667</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>7.300416666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3386,31 +3823,39 @@
         <v>19</v>
       </c>
       <c r="E54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>180</v>
+      </c>
+      <c r="I54">
+        <v>35</v>
+      </c>
+      <c r="J54">
+        <v>33</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8.0874999999999986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3433,23 +3878,31 @@
         <v>34</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>3.2433333333333332</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>7.5808333333333326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3472,23 +3925,31 @@
         <v>32</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>3.1633333333333331</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>7.3133333333333326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3499,35 +3960,43 @@
         <v>0</v>
       </c>
       <c r="D57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3542,31 +4011,39 @@
         <v>20</v>
       </c>
       <c r="E58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>180</v>
+      </c>
+      <c r="I58">
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -3577,35 +4054,43 @@
         <v>0</v>
       </c>
       <c r="D59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E59">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3616,35 +4101,43 @@
         <v>0</v>
       </c>
       <c r="D60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E60">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -3667,23 +4160,31 @@
         <v>34</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3706,23 +4207,31 @@
         <v>36</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -3733,7 +4242,7 @@
         <v>54</v>
       </c>
       <c r="D63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E63">
@@ -3741,27 +4250,35 @@
         <v>26</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>1.8197222222222225</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>4.8197222222222225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -3787,20 +4304,28 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>2.8309722222222224</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>7.3809722222222218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -3827,20 +4352,28 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>2.1238888888888887</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>6.5488888888888885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -3851,35 +4384,43 @@
         <v>0</v>
       </c>
       <c r="D66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <f t="shared" ref="K66:K97" si="6">ROUNDUP(1+(C66/80+D66/20+E66/50+F66/50+G66/1)/5*2.5,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -3905,20 +4446,28 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K67">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" ref="K67:K130" si="7">ROUND(MIN(MIN((C67/80+D67/20+E67/50+F67/50+G67/50)/5*2.5+H67/180*2,3.5)+1+I67/40*1.5+J67/10,10),0)</f>
+        <v>8</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M130" si="8">MIN((C67/80+D67/20+E67/50+F67/50+G67/50)/5*2.5+H67/180*2,3.5)</f>
+        <v>3.1765277777777774</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N130" si="9">MIN(MIN((C67/80+D67/20+E67/50+F67/50+G67/50)/5*2.5+H67/180*2,3.5)+1+I67/40*1.5+J67/10,10)</f>
+        <v>7.9265277777777774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -3942,23 +4491,31 @@
         <v>29</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="8"/>
+        <v>2.9247222222222224</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="9"/>
+        <v>9.5372222222222227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -3974,7 +4531,7 @@
         <v>18</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E130" si="7">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <f t="shared" ref="E69:E133" si="10">MIN(ROUNDUP(0*1.15,0),48)</f>
         <v>0</v>
       </c>
       <c r="F69">
@@ -3985,20 +4542,28 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K69">
-        <f t="shared" si="6"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="8"/>
+        <v>2.4443055555555557</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="9"/>
+        <v>7.3193055555555553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -4021,23 +4586,38 @@
         <v>41</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K70">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="8"/>
+        <v>2.8427777777777776</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="9"/>
+        <v>7.9552777777777779</v>
+      </c>
+      <c r="P70">
+        <v>25</v>
+      </c>
+      <c r="Q70">
+        <f>ROUNDUP(P70*1.1,0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4052,31 +4632,46 @@
         <v>17</v>
       </c>
       <c r="E71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F133" si="11">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>30</v>
+      </c>
+      <c r="H71">
+        <v>80</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f t="shared" ref="F68:F130" si="8">MIN(ROUNDUP(0*1.15,0),48)</f>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="8"/>
+        <v>1.9701388888888889</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="9"/>
+        <v>2.9701388888888891</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71:Q103" si="12">ROUNDUP(P71*1.1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -4087,35 +4682,50 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D102" si="9">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <f t="shared" ref="D72:D103" si="13">MIN(ROUNDUP(0*1.1,0),20)</f>
         <v>0</v>
       </c>
       <c r="E72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="6"/>
+      <c r="N72">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -4126,35 +4736,50 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4169,31 +4794,46 @@
         <v>18</v>
       </c>
       <c r="E74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>30</v>
+      </c>
+      <c r="H74">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>7</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.8527777777777779</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="9"/>
+        <v>4.677777777777778</v>
+      </c>
+      <c r="P74">
+        <v>6</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -4216,23 +4856,38 @@
         <v>36</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="8"/>
+        <v>2.9961111111111109</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="9"/>
+        <v>9.5961111111111101</v>
+      </c>
+      <c r="P75">
+        <v>37</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -4243,35 +4898,50 @@
         <v>0</v>
       </c>
       <c r="D76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.7</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4294,298 +4964,418 @@
         <v>29</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K77">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="8"/>
+        <v>3.2669444444444444</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="9"/>
+        <v>7.7169444444444446</v>
+      </c>
+      <c r="P77">
+        <v>24</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B78">
         <v>243</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E78">
-        <f>MIN(ROUNDUP(24*1.15,0),48)</f>
-        <v>28</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F78">
-        <f>MIN(ROUNDUP(30*1.15,0),48)</f>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="6"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="8"/>
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="9"/>
+        <v>2.9805555555555556</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>243</v>
       </c>
       <c r="C79">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D79">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E79">
-        <f>MIN(ROUNDUP(28*1.15,0),48)</f>
-        <v>33</v>
+        <f>MIN(ROUNDUP(24*1.15,0),48)</f>
+        <v>28</v>
       </c>
       <c r="F79">
         <f>MIN(ROUNDUP(30*1.15,0),48)</f>
         <v>35</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K79">
-        <f t="shared" si="6"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="8"/>
+        <v>2.4841666666666669</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="9"/>
+        <v>6.809166666666667</v>
+      </c>
+      <c r="P79">
+        <v>20</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80">
         <v>243</v>
       </c>
       <c r="C80">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D80">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E80">
+        <f>MIN(ROUNDUP(28*1.15,0),48)</f>
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <f>MIN(ROUNDUP(30*1.15,0),48)</f>
+        <v>35</v>
+      </c>
+      <c r="G80">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>20</v>
+      </c>
+      <c r="I80">
+        <v>20</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="8"/>
+        <v>2.2022222222222223</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="9"/>
+        <v>5.8522222222222222</v>
+      </c>
+      <c r="P80">
+        <v>17</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <v>243</v>
+      </c>
+      <c r="C81">
+        <v>75</v>
+      </c>
+      <c r="D81">
+        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
+        <v>18</v>
+      </c>
+      <c r="E81">
         <f>MIN(ROUNDUP(21*1.15,0),48)</f>
         <v>25</v>
       </c>
-      <c r="F80">
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+        <v>1.16875</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="9"/>
+        <v>3.1687500000000002</v>
+      </c>
+      <c r="P81">
+        <v>9</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>89</v>
-      </c>
-      <c r="B81">
-        <v>243</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>90</v>
       </c>
       <c r="B82">
         <v>243</v>
       </c>
       <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>35</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="8"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="9"/>
+        <v>3.1569444444444446</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83">
+        <v>243</v>
+      </c>
+      <c r="C83">
         <v>76</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <f>MIN(ROUNDUP(18*1.1,0),20)</f>
         <v>20</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <f>MIN(ROUNDUP(31*1.15,0),48)</f>
         <v>36</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <f>MIN(ROUNDUP(34*1.15,0),48)</f>
         <v>40</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>140</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>24</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="8"/>
+        <v>3.2905555555555557</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="9"/>
+        <v>7.8155555555555551</v>
+      </c>
+      <c r="P83">
+        <v>21</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>243</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>76</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <f>MIN(ROUNDUP(20*1.15,0),48)</f>
         <v>23</v>
       </c>
-      <c r="F83">
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>32</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+        <v>1.155</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="9"/>
+        <v>5.3550000000000004</v>
+      </c>
+      <c r="P84">
+        <v>29</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>92</v>
-      </c>
-      <c r="B84">
-        <v>243</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>93</v>
       </c>
       <c r="B85">
         <v>243</v>
@@ -4594,466 +5384,646 @@
         <v>0</v>
       </c>
       <c r="D85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86">
         <v>243</v>
       </c>
       <c r="C86">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E86">
-        <f>MIN(ROUNDUP(32*1.15,0),48)</f>
-        <v>37</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F86">
-        <f>MIN(ROUNDUP(36*1.15,0),48)</f>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="8"/>
+        <v>0.85555555555555562</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="9"/>
+        <v>2.9805555555555556</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87">
         <v>243</v>
       </c>
       <c r="C87">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D87">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E87">
+        <f>MIN(ROUNDUP(32*1.15,0),48)</f>
+        <v>37</v>
+      </c>
+      <c r="F87">
+        <f>MIN(ROUNDUP(36*1.15,0),48)</f>
+        <v>42</v>
+      </c>
+      <c r="G87">
+        <v>30</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>25</v>
+      </c>
+      <c r="J87">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="8"/>
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="9"/>
+        <v>8.1524999999999999</v>
+      </c>
+      <c r="P87">
+        <v>38</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88">
+        <v>243</v>
+      </c>
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88">
+        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
+        <v>18</v>
+      </c>
+      <c r="E88">
         <f>MIN(ROUNDUP(23*1.15,0),48)</f>
         <v>27</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <f>MIN(ROUNDUP(28*1.15,0),48)</f>
         <v>33</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88">
+        <v>40</v>
+      </c>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <v>28</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="8"/>
+        <v>1.9194444444444445</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="9"/>
+        <v>6.6569444444444441</v>
+      </c>
+      <c r="P88">
+        <v>25</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>96</v>
       </c>
-      <c r="B88">
+      <c r="B89">
         <v>243</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>51</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <f>MIN(ROUNDUP(15*1.1,0),20)</f>
         <v>17</v>
       </c>
-      <c r="E88">
+      <c r="E89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>25</v>
+      </c>
+      <c r="J89">
+        <v>26</v>
+      </c>
+      <c r="K89">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="6"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+        <v>1.6326388888888888</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="9"/>
+        <v>6.1701388888888893</v>
+      </c>
+      <c r="P89">
+        <v>23</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>243</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>73</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
-      <c r="E89">
+      <c r="E90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>30</v>
+      </c>
+      <c r="H90">
+        <v>60</v>
+      </c>
+      <c r="I90">
+        <v>35</v>
+      </c>
+      <c r="J90">
+        <v>24</v>
+      </c>
+      <c r="K90">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+        <v>1.8729166666666668</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="9"/>
+        <v>6.5854166666666671</v>
+      </c>
+      <c r="P90">
+        <v>21</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>243</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>74</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <f>MIN(ROUNDUP(17*1.1,0),20)</f>
         <v>19</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <f>MIN(ROUNDUP(31*1.15,0),48)</f>
         <v>36</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f>MIN(ROUNDUP(36*1.15,0),48)</f>
         <v>42</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="G91">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>39</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="8"/>
+        <v>3.0063888888888886</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="9"/>
+        <v>7.9063888888888894</v>
+      </c>
+      <c r="P91">
+        <v>35</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>99</v>
-      </c>
-      <c r="B91">
-        <v>243</v>
-      </c>
-      <c r="C91">
-        <v>57</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="6"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>100</v>
       </c>
       <c r="B92">
         <v>243</v>
       </c>
       <c r="C92">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D92">
-        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="E92">
-        <f>MIN(ROUNDUP(21*1.15,0),48)</f>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F92">
-        <f>MIN(ROUNDUP(30*1.15,0),48)</f>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="8"/>
+        <v>1.4118055555555555</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="9"/>
+        <v>4.6368055555555561</v>
+      </c>
+      <c r="P92">
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>243</v>
       </c>
       <c r="C93">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D93">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E93">
+        <f>MIN(ROUNDUP(21*1.15,0),48)</f>
+        <v>25</v>
+      </c>
+      <c r="F93">
+        <f>MIN(ROUNDUP(30*1.15,0),48)</f>
+        <v>35</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>60</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>32</v>
+      </c>
+      <c r="K93">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="6"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.3291666666666666</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="9"/>
+        <v>6.5291666666666668</v>
+      </c>
+      <c r="P93">
+        <v>29</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94">
         <v>243</v>
       </c>
       <c r="C94">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D94">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E94">
-        <f>MIN(ROUNDUP(27*1.15,0),48)</f>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F94">
-        <f>MIN(ROUNDUP(39*1.15,0),48)</f>
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="8"/>
+        <v>2.1527777777777777</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="9"/>
+        <v>6.7777777777777777</v>
+      </c>
+      <c r="P94">
+        <v>22</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95">
         <v>243</v>
       </c>
       <c r="C95">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D95">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E95">
+        <f>MIN(ROUNDUP(27*1.15,0),48)</f>
+        <v>32</v>
+      </c>
+      <c r="F95">
+        <f>MIN(ROUNDUP(39*1.15,0),48)</f>
+        <v>45</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>30</v>
+      </c>
+      <c r="J95">
+        <v>39</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="8"/>
+        <v>3.0838888888888891</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="9"/>
+        <v>9.1088888888888899</v>
+      </c>
+      <c r="P95">
+        <v>35</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96">
+        <v>243</v>
+      </c>
+      <c r="C96">
+        <v>70</v>
+      </c>
+      <c r="D96">
+        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
+        <v>18</v>
+      </c>
+      <c r="E96">
         <f>MIN(ROUNDUP(21*1.15,0),48)</f>
         <v>25</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <f>MIN(ROUNDUP(31*1.15,0),48)</f>
         <v>36</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>36</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="8"/>
+        <v>1.4975000000000001</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="9"/>
+        <v>6.0975000000000001</v>
+      </c>
+      <c r="P96">
+        <v>32</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>104</v>
-      </c>
-      <c r="B96">
-        <v>243</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>105</v>
       </c>
       <c r="B97">
         <v>243</v>
@@ -5062,115 +6032,160 @@
         <v>0</v>
       </c>
       <c r="D97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <v>243</v>
       </c>
       <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>30</v>
+      </c>
+      <c r="H98">
+        <v>60</v>
+      </c>
+      <c r="I98">
+        <v>30</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="8"/>
+        <v>0.96666666666666656</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="9"/>
+        <v>3.0916666666666668</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99">
+        <v>243</v>
+      </c>
+      <c r="C99">
         <v>70</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F98">
+      <c r="E99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
         <f>MIN(ROUNDUP(30*1.15,0),48)</f>
         <v>35</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <f t="shared" ref="K98:K134" si="10">ROUNDUP(1+(C98/80+D98/20+E98/50+F98/50+G98/1)/5*2.5,1)</f>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>35</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="8"/>
+        <v>1.2374999999999998</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="9"/>
+        <v>5.7374999999999998</v>
+      </c>
+      <c r="P99">
+        <v>31</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
         <v>107</v>
-      </c>
-      <c r="B99">
-        <v>243</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>108</v>
       </c>
       <c r="B100">
         <v>243</v>
@@ -5179,193 +6194,268 @@
         <v>0</v>
       </c>
       <c r="D100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>243</v>
       </c>
       <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>70</v>
+      </c>
+      <c r="I101">
+        <v>30</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="8"/>
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="9"/>
+        <v>3.4027777777777777</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102">
+        <v>243</v>
+      </c>
+      <c r="C102">
         <v>72</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <f>MIN(ROUNDUP(25*1.15,0),48)</f>
         <v>29</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f>MIN(ROUNDUP(31*1.15,0),48)</f>
         <v>36</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>32</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="8"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="9"/>
+        <v>5.75</v>
+      </c>
+      <c r="P102">
+        <v>29</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103">
+        <v>243</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E103">
         <f t="shared" si="10"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>110</v>
-      </c>
-      <c r="B102">
-        <v>243</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>8</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+        <v>1.8</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
         <v>111</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>244</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>76</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <f>MIN(ROUNDUP(19*1.1,0),20)</f>
         <v>20</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <f>MIN(ROUNDUP(29*1.15,0),48)</f>
         <v>34</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <f>MIN(ROUNDUP(27*1.15,0),48)</f>
         <v>32</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="10"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>60</v>
+      </c>
+      <c r="I104">
+        <v>20</v>
+      </c>
+      <c r="J104">
+        <v>33</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="8"/>
+        <v>2.3016666666666667</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="9"/>
+        <v>7.3516666666666666</v>
+      </c>
+      <c r="P104">
+        <v>30</v>
+      </c>
+      <c r="Q104">
+        <f>ROUNDUP(P104*1.1,0)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
         <v>112</v>
-      </c>
-      <c r="B104">
-        <v>244</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <f t="shared" ref="D104:D133" si="11">MIN(ROUNDUP(0*1.1,0),20)</f>
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>113</v>
       </c>
       <c r="B105">
         <v>244</v>
@@ -5374,1184 +6464,1845 @@
         <v>0</v>
       </c>
       <c r="D105">
+        <f t="shared" ref="D105:D136" si="14">MIN(ROUNDUP(0*1.1,0),20)</f>
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ref="Q105:Q137" si="15">ROUNDUP(P105*1.1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106">
+        <v>244</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <f>MIN(ROUNDUP(33*1.15,0),48)</f>
+        <v>38</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>18</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="8"/>
+        <v>1.7077777777777778</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="9"/>
+        <v>4.5077777777777781</v>
+      </c>
+      <c r="P106">
+        <v>14</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107">
+        <v>244</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <f>MIN(ROUNDUP(28*1.15,0),48)</f>
+        <v>33</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>20</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="8"/>
+        <v>1.5008333333333335</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="9"/>
+        <v>4.5008333333333335</v>
+      </c>
+      <c r="P107">
+        <v>18</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108">
+        <v>244</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>244</v>
+      </c>
+      <c r="C109">
+        <f>MIN(ROUNDUP(72*1.1,0),75)</f>
+        <v>75</v>
+      </c>
+      <c r="D109">
+        <f>MIN(ROUNDUP(19*1.1,0),20)</f>
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <f>MIN(ROUNDUP(24*1.15,0),48)</f>
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <f>MIN(ROUNDUP(39*1.15,0),48)</f>
+        <v>45</v>
+      </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
+      <c r="H109">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>25</v>
+      </c>
+      <c r="J109">
+        <v>32</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="8"/>
+        <v>2.7765277777777779</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="9"/>
+        <v>7.9140277777777781</v>
+      </c>
+      <c r="P109">
+        <v>29</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>244</v>
+      </c>
+      <c r="C110">
+        <v>71</v>
+      </c>
+      <c r="D110">
         <f>MIN(ROUNDUP(14*1.1,0),20)</f>
         <v>16</v>
       </c>
-      <c r="E105">
-        <f>MIN(ROUNDUP(28*1.15,0),48)</f>
-        <v>33</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="B106">
-        <v>244</v>
-      </c>
-      <c r="C106">
-        <v>54</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <f>MIN(ROUNDUP(25*1.15,0),48)</f>
-        <v>29</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="10"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107">
-        <v>244</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B108">
-        <v>244</v>
-      </c>
-      <c r="C108">
-        <f>MIN(ROUNDUP(72*1.1,0),75)</f>
-        <v>75</v>
-      </c>
-      <c r="D108">
-        <f>MIN(ROUNDUP(19*1.1,0),20)</f>
-        <v>20</v>
-      </c>
-      <c r="E108">
-        <f>MIN(ROUNDUP(24*1.15,0),48)</f>
-        <v>28</v>
-      </c>
-      <c r="F108">
-        <f>MIN(ROUNDUP(39*1.15,0),48)</f>
-        <v>45</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="10"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109">
-        <v>244</v>
-      </c>
-      <c r="C109">
-        <v>71</v>
-      </c>
-      <c r="D109">
-        <f>MIN(ROUNDUP(14*1.1,0),20)</f>
-        <v>16</v>
-      </c>
-      <c r="E109">
+      <c r="E110">
         <f>MIN(ROUNDUP(23*1.15,0),48)</f>
         <v>27</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <f>MIN(ROUNDUP(21*1.15,0),48)</f>
         <v>25</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>170</v>
+      </c>
+      <c r="I110">
+        <v>30</v>
+      </c>
+      <c r="J110">
+        <v>24</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="8"/>
+        <v>3.2526388888888889</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="9"/>
+        <v>7.7776388888888892</v>
+      </c>
+      <c r="P110">
+        <v>21</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111">
+        <v>244</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
         <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B110">
+      <c r="B112">
         <v>244</v>
       </c>
-      <c r="C110">
+      <c r="C112">
         <v>68</v>
       </c>
-      <c r="D110">
+      <c r="D112">
         <f>MIN(ROUNDUP(17*1.1,0),20)</f>
         <v>19</v>
       </c>
-      <c r="E110">
+      <c r="E112">
         <f>MIN(ROUNDUP(14*1.15,0),48)</f>
         <v>17</v>
       </c>
-      <c r="F110">
+      <c r="F112">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>30</v>
+      </c>
+      <c r="H112">
+        <v>130</v>
+      </c>
+      <c r="I112">
+        <v>30</v>
+      </c>
+      <c r="J112">
+        <v>32</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="10"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+        <v>2.8144444444444443</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="9"/>
+        <v>8.1394444444444431</v>
+      </c>
+      <c r="P112">
+        <v>29</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
         <v>118</v>
-      </c>
-      <c r="B111">
-        <v>244</v>
-      </c>
-      <c r="C111">
-        <v>78</v>
-      </c>
-      <c r="D111">
-        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
-        <v>18</v>
-      </c>
-      <c r="E111">
-        <f>MIN(ROUNDUP(17*1.15,0),48)</f>
-        <v>20</v>
-      </c>
-      <c r="F111">
-        <f>MIN(ROUNDUP(40*1.15,0),48)</f>
-        <v>46</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="10"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112">
-        <v>244</v>
-      </c>
-      <c r="C112">
-        <v>27</v>
-      </c>
-      <c r="D112">
-        <f>MIN(ROUNDUP(15*1.1,0),20)</f>
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <f>MIN(ROUNDUP(21*1.15,0),48)</f>
-        <v>25</v>
-      </c>
-      <c r="F112">
-        <f>MIN(ROUNDUP(32*1.15,0),48)</f>
-        <v>37</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="10"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>120</v>
       </c>
       <c r="B113">
         <v>244</v>
       </c>
       <c r="C113">
-        <f>MIN(ROUNDUP(57*1.1,0),75)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D113">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
       <c r="E113">
+        <f>MIN(ROUNDUP(17*1.15,0),48)</f>
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <f>MIN(ROUNDUP(42*1.15,0),48)</f>
+        <v>48</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>80</v>
+      </c>
+      <c r="I113">
+        <v>35</v>
+      </c>
+      <c r="J113">
+        <v>37</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="8"/>
+        <v>2.506388888888889</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="9"/>
+        <v>8.5188888888888883</v>
+      </c>
+      <c r="P113">
+        <v>33</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>244</v>
+      </c>
+      <c r="C114">
+        <v>27</v>
+      </c>
+      <c r="D114">
+        <f>MIN(ROUNDUP(15*1.1,0),20)</f>
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <f>MIN(ROUNDUP(21*1.15,0),48)</f>
+        <v>25</v>
+      </c>
+      <c r="F114">
+        <f>MIN(ROUNDUP(32*1.15,0),48)</f>
+        <v>37</v>
+      </c>
+      <c r="G114">
+        <v>30</v>
+      </c>
+      <c r="H114">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>30</v>
+      </c>
+      <c r="J114">
+        <v>19</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="8"/>
+        <v>2.4026388888888892</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="9"/>
+        <v>6.4276388888888896</v>
+      </c>
+      <c r="P114">
+        <v>17</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>244</v>
+      </c>
+      <c r="C115">
+        <f>MIN(ROUNDUP(57*1.1,0),75)</f>
+        <v>63</v>
+      </c>
+      <c r="D115">
+        <f>MIN(ROUNDUP(16*1.1,0),20)</f>
+        <v>18</v>
+      </c>
+      <c r="E115">
         <f>MIN(ROUNDUP(23*1.15,0),48)</f>
         <v>27</v>
       </c>
-      <c r="F113">
+      <c r="F115">
         <f>MIN(ROUNDUP(14*1.15,0),48)</f>
         <v>17</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="10"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+      <c r="G115">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>90</v>
+      </c>
+      <c r="I115">
+        <v>30</v>
+      </c>
+      <c r="J115">
+        <v>29</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="8"/>
+        <v>2.6837499999999999</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="9"/>
+        <v>7.7087500000000002</v>
+      </c>
+      <c r="P115">
+        <v>26</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
         <v>121</v>
       </c>
-      <c r="B114">
+      <c r="B116">
         <v>244</v>
       </c>
-      <c r="C114">
+      <c r="C116">
         <v>71</v>
       </c>
-      <c r="D114">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E114">
+      <c r="D116">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E116">
         <f>MIN(ROUNDUP(27*1.15,0),48)</f>
         <v>32</v>
       </c>
-      <c r="F114">
+      <c r="F116">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>110</v>
+      </c>
+      <c r="I116">
+        <v>30</v>
+      </c>
+      <c r="J116">
+        <v>40</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M116">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+        <v>1.9859722222222222</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="9"/>
+        <v>8.1109722222222231</v>
+      </c>
+      <c r="P116">
+        <v>36</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="B115">
+      <c r="B117">
         <v>244</v>
       </c>
-      <c r="C115">
+      <c r="C117">
         <v>66</v>
       </c>
-      <c r="D115">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E115">
+      <c r="D117">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E117">
         <f>MIN(ROUNDUP(37*1.15,0),48)</f>
         <v>43</v>
       </c>
-      <c r="F115">
+      <c r="F117">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>110</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>31</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M117">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
+        <v>2.0647222222222226</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="9"/>
+        <v>6.1647222222222222</v>
+      </c>
+      <c r="P117">
+        <v>28</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>244</v>
+      </c>
+      <c r="C118">
+        <v>61</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E118">
         <f t="shared" si="10"/>
-        <v>1.9000000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>120</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>22</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="8"/>
+        <v>1.7145833333333331</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="9"/>
+        <v>4.9145833333333329</v>
+      </c>
+      <c r="P118">
+        <v>20</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
         <v>244</v>
       </c>
-      <c r="C116">
-        <v>61</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="10"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117">
-        <v>244</v>
-      </c>
-      <c r="C117">
+      <c r="C119">
         <f>MIN(ROUNDUP(60*1.1,0),75)</f>
         <v>66</v>
       </c>
-      <c r="D117">
+      <c r="D119">
         <f>MIN(ROUNDUP(16*1.1,0),20)</f>
         <v>18</v>
       </c>
-      <c r="E117">
+      <c r="E119">
         <f>MIN(ROUNDUP(23*1.15,0),48)</f>
         <v>27</v>
       </c>
-      <c r="F117">
+      <c r="F119">
         <f>MIN(ROUNDUP(14*1.15,0),48)</f>
         <v>17</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="10"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>25</v>
+      </c>
+      <c r="J119">
+        <v>32</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="8"/>
+        <v>2.1913888888888886</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="9"/>
+        <v>7.3288888888888888</v>
+      </c>
+      <c r="P119">
+        <v>29</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
         <v>125</v>
       </c>
-      <c r="B118">
+      <c r="B120">
         <v>244</v>
       </c>
-      <c r="C118">
+      <c r="C120">
         <f>MIN(ROUNDUP(44*1.1,0),76)</f>
         <v>49</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E118">
+      <c r="D120">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E120">
         <f>MIN(ROUNDUP(28*1.15,0),48)</f>
         <v>33</v>
       </c>
-      <c r="F118">
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>110</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>29</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M120">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
+        <v>1.8584722222222223</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="9"/>
+        <v>5.7584722222222222</v>
+      </c>
+      <c r="P120">
+        <v>26</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>244</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E121">
         <f t="shared" si="10"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
         <v>244</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B120">
-        <v>244</v>
-      </c>
-      <c r="C120">
+      <c r="C122">
         <v>60</v>
       </c>
-      <c r="D120">
+      <c r="D122">
         <f>MIN(ROUNDUP(15*1.1,0),20)</f>
         <v>17</v>
       </c>
-      <c r="E120">
+      <c r="E122">
         <f>MIN(ROUNDUP(25*1.15,0),48)</f>
         <v>29</v>
       </c>
-      <c r="F120">
+      <c r="F122">
         <f>MIN(ROUNDUP(41*1.15,0),48)</f>
         <v>48</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
+      <c r="G122">
+        <v>50</v>
+      </c>
+      <c r="H122">
+        <v>140</v>
+      </c>
+      <c r="I122">
+        <v>37</v>
+      </c>
+      <c r="J122">
+        <v>37</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="9"/>
+        <v>9.5875000000000004</v>
+      </c>
+      <c r="P122">
+        <v>32</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>244</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E123">
         <f t="shared" si="10"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
         <v>244</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122">
-        <v>244</v>
-      </c>
-      <c r="C122">
+      <c r="C124">
         <f>MIN(ROUNDUP(49*1.1,0),78)</f>
         <v>54</v>
       </c>
-      <c r="D122">
+      <c r="D124">
         <f>MIN(ROUNDUP(17*1.1,0),20)</f>
         <v>19</v>
       </c>
-      <c r="E122">
+      <c r="E124">
         <f>MIN(ROUNDUP(27*1.15,0),48)</f>
         <v>32</v>
       </c>
-      <c r="F122">
+      <c r="F124">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>40</v>
+      </c>
+      <c r="I124">
+        <v>30</v>
+      </c>
+      <c r="J124">
+        <v>18</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M124">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="10"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+        <v>1.7769444444444444</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="9"/>
+        <v>5.701944444444444</v>
+      </c>
+      <c r="P124">
+        <v>16</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B123">
+      <c r="B125">
         <v>244</v>
       </c>
-      <c r="C123">
+      <c r="C125">
         <f>MIN(ROUNDUP(21*1.1,0),78)</f>
         <v>24</v>
       </c>
-      <c r="D123">
+      <c r="D125">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E123">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>150</v>
+      </c>
+      <c r="I125">
+        <v>30</v>
+      </c>
+      <c r="J125">
+        <v>19</v>
+      </c>
+      <c r="K125">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="M125">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="10"/>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+        <v>1.8166666666666667</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="9"/>
+        <v>5.8416666666666668</v>
+      </c>
+      <c r="P125">
+        <v>17</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B124">
+      <c r="B126">
         <v>244</v>
       </c>
-      <c r="C124">
-        <f t="shared" ref="C124:C132" si="12">MIN(ROUNDUP(0*1.1,0),78)</f>
-        <v>0</v>
-      </c>
-      <c r="D124">
+      <c r="C126">
+        <f t="shared" ref="C126:C135" si="16">MIN(ROUNDUP(0*1.1,0),78)</f>
+        <v>0</v>
+      </c>
+      <c r="D126">
         <f>MIN(ROUNDUP(18*1.1,0),20)</f>
         <v>20</v>
       </c>
-      <c r="E124">
+      <c r="E126">
         <f>MIN(ROUNDUP(13*1.15,0),48)</f>
         <v>15</v>
       </c>
-      <c r="F124">
+      <c r="F126">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>60</v>
+      </c>
+      <c r="I126">
+        <v>30</v>
+      </c>
+      <c r="J126">
+        <v>25</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M126">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="10"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+        <v>1.7166666666666668</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="9"/>
+        <v>6.3416666666666668</v>
+      </c>
+      <c r="P126">
+        <v>22</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
         <v>132</v>
       </c>
-      <c r="B125">
+      <c r="B127">
         <v>244</v>
       </c>
-      <c r="C125">
+      <c r="C127">
         <f>MIN(ROUNDUP(64*1.1,0),78)</f>
         <v>71</v>
       </c>
-      <c r="D125">
+      <c r="D127">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E125">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>18</v>
+      </c>
+      <c r="K127">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="M127">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+        <v>0.44374999999999998</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="9"/>
+        <v>3.2437500000000004</v>
+      </c>
+      <c r="P127">
+        <v>16</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
         <v>133</v>
       </c>
-      <c r="B126">
+      <c r="B128">
         <v>244</v>
       </c>
-      <c r="C126">
+      <c r="C128">
         <f>MIN(ROUNDUP(46*1.1,0),78)</f>
         <v>51</v>
       </c>
-      <c r="D126">
+      <c r="D128">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F128">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E126">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>60</v>
+      </c>
+      <c r="I128">
+        <v>30</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="M128">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="10"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+        <v>0.98541666666666661</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="9"/>
+        <v>3.1104166666666666</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>134</v>
       </c>
-      <c r="B127">
+      <c r="B129">
         <v>244</v>
       </c>
-      <c r="C127">
+      <c r="C129">
         <f>MIN(ROUNDUP(44*1.1,0),78)</f>
         <v>49</v>
       </c>
-      <c r="D127">
+      <c r="D129">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f>MIN(ROUNDUP(34*1.15,0),48)</f>
+        <v>40</v>
+      </c>
+      <c r="F129">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E127">
-        <f>MIN(ROUNDUP(27*1.15,0),48)</f>
-        <v>32</v>
-      </c>
-      <c r="F127">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>28</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M129">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="10"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="9"/>
+        <v>4.5062499999999996</v>
+      </c>
+      <c r="P129">
+        <v>25</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
         <v>135</v>
       </c>
-      <c r="B128">
+      <c r="B130">
         <v>244</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D128">
+      <c r="C130">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D130">
         <f>MIN(ROUNDUP(6*1.1,0),20)</f>
         <v>7</v>
       </c>
-      <c r="E128">
+      <c r="E130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>120</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>22</v>
+      </c>
+      <c r="K130">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="M130">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
+        <v>1.5083333333333333</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="9"/>
+        <v>4.7083333333333339</v>
+      </c>
+      <c r="P130">
+        <v>20</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131">
+        <v>244</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E131">
         <f t="shared" si="10"/>
-        <v>1.2000000000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K139" si="17">ROUND(MIN(MIN((C131/80+D131/20+E131/50+F131/50+G131/50)/5*2.5+H131/180*2,3.5)+1+I131/40*1.5+J131/10,10),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131:M139" si="18">MIN((C131/80+D131/20+E131/50+F131/50+G131/50)/5*2.5+H131/180*2,3.5)</f>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" ref="N131:N139" si="19">MIN(MIN((C131/80+D131/20+E131/50+F131/50+G131/50)/5*2.5+H131/180*2,3.5)+1+I131/40*1.5+J131/10,10)</f>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B129">
+      <c r="B132">
         <v>244</v>
       </c>
-      <c r="C129">
+      <c r="C132">
         <f>MIN(ROUNDUP(51*1.1,0),78)</f>
         <v>57</v>
       </c>
-      <c r="D129">
+      <c r="D132">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F132">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>90</v>
+      </c>
+      <c r="I132">
+        <v>20</v>
+      </c>
+      <c r="J132">
+        <v>16</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="18"/>
+        <v>1.3562500000000002</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="19"/>
+        <v>4.7062500000000007</v>
+      </c>
+      <c r="P132">
+        <v>14</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>244</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="10"/>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134">
         <v>244</v>
       </c>
-      <c r="C130">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131">
-        <v>244</v>
-      </c>
-      <c r="C131">
+      <c r="C134">
         <f>MIN(ROUNDUP(41*1.1,0),78)</f>
         <v>46</v>
       </c>
-      <c r="D131">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E131">
+      <c r="D134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E134">
         <f>MIN(ROUNDUP(38*1.15,0),48)</f>
         <v>44</v>
       </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F134" si="13">MIN(ROUNDUP(0*1.15,0),48)</f>
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <f t="shared" si="10"/>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="F134">
+        <f t="shared" ref="F134:F137" si="20">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>18</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="18"/>
+        <v>2.0163888888888888</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="19"/>
+        <v>4.8163888888888886</v>
+      </c>
+      <c r="P134">
+        <v>16</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
         <v>139</v>
       </c>
-      <c r="B132">
+      <c r="B135">
         <v>244</v>
       </c>
-      <c r="C132">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <f t="shared" ref="E132:E134" si="14">MIN(ROUNDUP(0*1.15,0),48)</f>
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="10"/>
+      <c r="C135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:E137" si="21">MIN(ROUNDUP(0*1.15,0),48)</f>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+      <c r="M135">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
         <v>140</v>
       </c>
-      <c r="B133">
+      <c r="B136">
         <v>244</v>
       </c>
-      <c r="C133">
+      <c r="C136">
         <f>MIN(ROUNDUP(41*1.1,0),78)</f>
         <v>46</v>
       </c>
-      <c r="D133">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E133">
+      <c r="D136">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="10"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
+      <c r="E136">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>140</v>
+      </c>
+      <c r="I136">
+        <v>35</v>
+      </c>
+      <c r="J136">
+        <v>37</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="18"/>
+        <v>1.8430555555555554</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="19"/>
+        <v>7.8555555555555552</v>
+      </c>
+      <c r="P136">
+        <v>33</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B134">
+      <c r="B137">
         <v>244</v>
       </c>
-      <c r="C134">
+      <c r="C137">
         <f>MIN(ROUNDUP(47*1.1,0),78)</f>
         <v>52</v>
       </c>
-      <c r="D134">
+      <c r="D137">
         <f>MIN(ROUNDUP(19*1.1,0),20)</f>
         <v>20</v>
       </c>
-      <c r="E134">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="10"/>
-        <v>1.9000000000000001</v>
+      <c r="E137">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>20</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="18"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="19"/>
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="P137">
+        <v>18</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="K138">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="H139">
+        <v>125</v>
+      </c>
+      <c r="I139">
+        <v>30</v>
+      </c>
+      <c r="J139">
+        <v>20</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="18"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="19"/>
+        <v>5.5138888888888893</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K134"/>
+  <autoFilter ref="A1:K139">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="244"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1315,8 +1315,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6909,10 +6909,10 @@
         <v>48</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H113">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="I113">
         <v>35</v>
@@ -6922,15 +6922,15 @@
       </c>
       <c r="K113">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M113">
         <f t="shared" si="8"/>
-        <v>2.506388888888889</v>
+        <v>3.4886111111111111</v>
       </c>
       <c r="N113">
         <f t="shared" si="9"/>
-        <v>8.5188888888888883</v>
+        <v>9.5011111111111113</v>
       </c>
       <c r="P113">
         <v>33</v>

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Nume</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>ERASMUS</t>
-  </si>
-  <si>
-    <t>lipseste</t>
   </si>
 </sst>
 </file>
@@ -1312,11 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1360,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1402,7 @@
         <v>4.5202777777777783</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1453,7 +1449,7 @@
         <v>8.3140277777777776</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1590,7 @@
         <v>7.3230555555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>5.990277777777778</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1735,7 +1731,7 @@
         <v>5.9465277777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1782,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1825,7 @@
         <v>7.0466666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1872,7 @@
         <v>7.2861111111111114</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2017,7 +2013,7 @@
         <v>6.1204166666666673</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -2064,7 +2060,7 @@
         <v>4.6812500000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2107,7 @@
         <v>9.4026388888888874</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2158,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2205,7 +2201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2253,7 +2249,7 @@
         <v>9.9288888888888884</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>6.1784722222222221</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2347,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2441,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>6.7590277777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2535,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2582,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2629,7 +2625,7 @@
         <v>7.656944444444445</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2676,7 +2672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2723,7 +2719,7 @@
         <v>9.50138888888889</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2817,7 +2813,7 @@
         <v>7.3625000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>6.9772222222222222</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2911,7 +2907,7 @@
         <v>8.9976388888888881</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2958,7 +2954,7 @@
         <v>9.3777777777777782</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3005,7 +3001,7 @@
         <v>8.3402777777777768</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3052,7 +3048,7 @@
         <v>7.0293055555555553</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>4.7638888888888893</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -3193,7 +3189,7 @@
         <v>7.740277777777778</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -3287,7 +3283,7 @@
         <v>5.5058333333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -3334,7 +3330,7 @@
         <v>7.4868055555555557</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>3.3555555555555556</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3428,7 +3424,7 @@
         <v>8.1591666666666658</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3475,7 +3471,7 @@
         <v>6.6069444444444443</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -3522,7 +3518,7 @@
         <v>8.5080555555555542</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3554,11 +3550,11 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
@@ -3566,13 +3562,10 @@
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
-        <v>2.6597222222222223</v>
-      </c>
-      <c r="O48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+        <v>5.5597222222222218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -3619,7 +3612,7 @@
         <v>7.3027777777777771</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -3666,7 +3659,7 @@
         <v>8.0459722222222219</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>8.8270833333333343</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -3761,7 +3754,7 @@
         <v>5.166666666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3808,7 +3801,7 @@
         <v>7.300416666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -3855,7 +3848,7 @@
         <v>8.0874999999999986</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3902,7 +3895,7 @@
         <v>7.5808333333333326</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -3949,7 +3942,7 @@
         <v>7.3133333333333326</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -3996,7 +3989,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -4043,7 +4036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -4090,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -4184,7 +4177,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -4231,7 +4224,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -4278,7 +4271,7 @@
         <v>4.8197222222222225</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -4325,7 +4318,7 @@
         <v>7.3809722222222218</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -4373,7 +4366,7 @@
         <v>6.5488888888888885</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -4420,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -4467,7 +4460,7 @@
         <v>7.9265277777777774</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -4515,7 +4508,7 @@
         <v>9.5372222222222227</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -4563,7 +4556,7 @@
         <v>7.3193055555555553</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -4617,7 +4610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -4671,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -4725,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -4779,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -4833,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -4941,7 +4934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -4995,7 +4988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -5049,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -5103,7 +5096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -5157,7 +5150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -5211,7 +5204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -5265,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -5319,7 +5312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -5373,7 +5366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -5427,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -5481,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -5535,7 +5528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -5589,7 +5582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -5643,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -5697,7 +5690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -5751,7 +5744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -5805,7 +5798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -5859,7 +5852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -5913,7 +5906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -5967,7 +5960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -6021,7 +6014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -6075,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -6129,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -6183,7 +6176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -6237,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -6291,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -6345,7 +6338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -8252,7 +8245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.45">
       <c r="K138">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -8266,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -8296,13 +8289,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K139">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="244"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K139"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3403,25 +3403,25 @@
         <v>50</v>
       </c>
       <c r="H45">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J45">
         <v>48</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>2.3591666666666664</v>
+        <v>3.2480555555555553</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>8.1591666666666658</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
@@ -3689,14 +3689,14 @@
         <v>120</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J51">
         <v>45</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M51">
         <f t="shared" si="1"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="2"/>
-        <v>8.8270833333333343</v>
+        <v>9.7645833333333343</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
@@ -4159,14 +4159,14 @@
         <v>140</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>28</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>7.3</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
@@ -4206,14 +4206,14 @@
         <v>150</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J62">
         <v>30</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M62">
         <f t="shared" si="1"/>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
@@ -5011,28 +5011,28 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <f t="shared" si="8"/>
-        <v>0.85555555555555562</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <f t="shared" si="9"/>
-        <v>2.9805555555555556</v>
+        <v>1</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I79">
         <v>30</v>
@@ -5082,11 +5082,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="8"/>
-        <v>2.4841666666666669</v>
+        <v>2.3730555555555561</v>
       </c>
       <c r="N79">
         <f t="shared" si="9"/>
-        <v>6.809166666666667</v>
+        <v>6.6980555555555563</v>
       </c>
       <c r="P79">
         <v>20</v>
@@ -5119,28 +5119,28 @@
         <v>35</v>
       </c>
       <c r="G80">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J80">
         <v>19</v>
       </c>
       <c r="K80">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M80">
         <f t="shared" si="8"/>
-        <v>2.2022222222222223</v>
+        <v>2.5466666666666664</v>
       </c>
       <c r="N80">
         <f t="shared" si="9"/>
-        <v>5.8522222222222222</v>
+        <v>6.5716666666666672</v>
       </c>
       <c r="P80">
         <v>17</v>
@@ -5173,28 +5173,28 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J81">
         <v>10</v>
       </c>
       <c r="K81">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M81">
         <f t="shared" si="8"/>
-        <v>1.16875</v>
+        <v>1.7909722222222224</v>
       </c>
       <c r="N81">
         <f t="shared" si="9"/>
-        <v>3.1687500000000002</v>
+        <v>4.5409722222222229</v>
       </c>
       <c r="P81">
         <v>9</v>
@@ -5227,28 +5227,28 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <f t="shared" si="8"/>
-        <v>0.84444444444444444</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <f t="shared" si="9"/>
-        <v>3.1569444444444446</v>
+        <v>1</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5281,28 +5281,28 @@
         <v>40</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H83">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="I83">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J83">
         <v>24</v>
       </c>
       <c r="K83">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M83">
         <f t="shared" si="8"/>
-        <v>3.2905555555555557</v>
+        <v>2.5794444444444444</v>
       </c>
       <c r="N83">
         <f t="shared" si="9"/>
-        <v>7.8155555555555551</v>
+        <v>7.2919444444444448</v>
       </c>
       <c r="P83">
         <v>21</v>
@@ -5338,25 +5338,25 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J84">
         <v>32</v>
       </c>
       <c r="K84">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M84">
         <f t="shared" si="8"/>
-        <v>1.155</v>
+        <v>2.7105555555555556</v>
       </c>
       <c r="N84">
         <f t="shared" si="9"/>
-        <v>5.3550000000000004</v>
+        <v>8.0355555555555558</v>
       </c>
       <c r="P84">
         <v>29</v>
@@ -5443,28 +5443,28 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f t="shared" si="8"/>
-        <v>0.85555555555555562</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <f t="shared" si="9"/>
-        <v>2.9805555555555556</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5500,25 +5500,25 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I87">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J87">
         <v>42</v>
       </c>
       <c r="K87">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M87">
         <f t="shared" si="8"/>
-        <v>2.0149999999999997</v>
+        <v>2.570555555555555</v>
       </c>
       <c r="N87">
         <f t="shared" si="9"/>
-        <v>8.1524999999999999</v>
+        <v>8.8955555555555552</v>
       </c>
       <c r="P87">
         <v>38</v>
@@ -5551,10 +5551,10 @@
         <v>33</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>25</v>
@@ -5564,15 +5564,15 @@
       </c>
       <c r="K88">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M88">
         <f t="shared" si="8"/>
-        <v>1.9194444444444445</v>
+        <v>1.675</v>
       </c>
       <c r="N88">
         <f t="shared" si="9"/>
-        <v>6.6569444444444441</v>
+        <v>6.4124999999999996</v>
       </c>
       <c r="P88">
         <v>25</v>
@@ -5605,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H89">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I89">
         <v>25</v>
@@ -5622,11 +5622,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="8"/>
-        <v>1.6326388888888888</v>
+        <v>1.2881944444444442</v>
       </c>
       <c r="N89">
         <f t="shared" si="9"/>
-        <v>6.1701388888888893</v>
+        <v>5.8256944444444443</v>
       </c>
       <c r="P89">
         <v>23</v>
@@ -5659,28 +5659,28 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I90">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J90">
         <v>24</v>
       </c>
       <c r="K90">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M90">
         <f t="shared" si="8"/>
-        <v>1.8729166666666668</v>
+        <v>1.7951388888888888</v>
       </c>
       <c r="N90">
         <f t="shared" si="9"/>
-        <v>6.5854166666666671</v>
+        <v>6.1326388888888888</v>
       </c>
       <c r="P90">
         <v>21</v>
@@ -5713,28 +5713,28 @@
         <v>42</v>
       </c>
       <c r="G91">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J91">
         <v>39</v>
       </c>
       <c r="K91">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M91">
         <f t="shared" si="8"/>
-        <v>3.0063888888888886</v>
+        <v>2.6841666666666661</v>
       </c>
       <c r="N91">
         <f t="shared" si="9"/>
-        <v>7.9063888888888894</v>
+        <v>8.8966666666666665</v>
       </c>
       <c r="P91">
         <v>35</v>
@@ -5752,7 +5752,7 @@
         <v>243</v>
       </c>
       <c r="C92">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D92">
         <f t="shared" si="13"/>
@@ -5767,16 +5767,16 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I92">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K92">
         <f t="shared" si="7"/>
@@ -5784,11 +5784,11 @@
       </c>
       <c r="M92">
         <f t="shared" si="8"/>
-        <v>1.4118055555555555</v>
+        <v>1.9104166666666667</v>
       </c>
       <c r="N92">
         <f t="shared" si="9"/>
-        <v>4.6368055555555561</v>
+        <v>4.5104166666666661</v>
       </c>
       <c r="P92">
         <v>10</v>
@@ -5821,28 +5821,28 @@
         <v>35</v>
       </c>
       <c r="G93">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H93">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J93">
         <v>32</v>
       </c>
       <c r="K93">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M93">
         <f t="shared" si="8"/>
-        <v>2.3291666666666666</v>
+        <v>2.5180555555555557</v>
       </c>
       <c r="N93">
         <f t="shared" si="9"/>
-        <v>6.5291666666666668</v>
+        <v>7.8430555555555559</v>
       </c>
       <c r="P93">
         <v>29</v>
@@ -5875,28 +5875,28 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H94">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I94">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J94">
         <v>25</v>
       </c>
       <c r="K94">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M94">
         <f t="shared" si="8"/>
-        <v>2.1527777777777777</v>
+        <v>1.7416666666666667</v>
       </c>
       <c r="N94">
         <f t="shared" si="9"/>
-        <v>6.7777777777777777</v>
+        <v>5.2416666666666671</v>
       </c>
       <c r="P94">
         <v>22</v>
@@ -5932,7 +5932,7 @@
         <v>50</v>
       </c>
       <c r="H95">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I95">
         <v>30</v>
@@ -5946,11 +5946,11 @@
       </c>
       <c r="M95">
         <f t="shared" si="8"/>
-        <v>3.0838888888888891</v>
+        <v>2.972777777777778</v>
       </c>
       <c r="N95">
         <f t="shared" si="9"/>
-        <v>9.1088888888888899</v>
+        <v>8.9977777777777774</v>
       </c>
       <c r="P95">
         <v>35</v>
@@ -5983,28 +5983,28 @@
         <v>36</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J96">
         <v>36</v>
       </c>
       <c r="K96">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M96">
         <f t="shared" si="8"/>
-        <v>1.4975000000000001</v>
+        <v>2.8863888888888889</v>
       </c>
       <c r="N96">
         <f t="shared" si="9"/>
-        <v>6.0975000000000001</v>
+        <v>8.6113888888888894</v>
       </c>
       <c r="P96">
         <v>32</v>
@@ -6091,28 +6091,28 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M98">
         <f t="shared" si="8"/>
-        <v>0.96666666666666656</v>
+        <v>0</v>
       </c>
       <c r="N98">
         <f t="shared" si="9"/>
-        <v>3.0916666666666668</v>
+        <v>1</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6145,28 +6145,28 @@
         <v>35</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J99">
         <v>35</v>
       </c>
       <c r="K99">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M99">
         <f t="shared" si="8"/>
-        <v>1.2374999999999998</v>
+        <v>2.2041666666666666</v>
       </c>
       <c r="N99">
         <f t="shared" si="9"/>
-        <v>5.7374999999999998</v>
+        <v>7.8291666666666666</v>
       </c>
       <c r="P99">
         <v>31</v>
@@ -6253,28 +6253,28 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <f t="shared" si="8"/>
-        <v>1.2777777777777777</v>
+        <v>0</v>
       </c>
       <c r="N101">
         <f t="shared" si="9"/>
-        <v>3.4027777777777777</v>
+        <v>1</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -6307,28 +6307,28 @@
         <v>36</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J102">
         <v>32</v>
       </c>
       <c r="K102">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M102">
         <f t="shared" si="8"/>
-        <v>1.5499999999999998</v>
+        <v>2.8277777777777775</v>
       </c>
       <c r="N102">
         <f t="shared" si="9"/>
-        <v>5.75</v>
+        <v>8.1527777777777786</v>
       </c>
       <c r="P102">
         <v>29</v>
@@ -8217,25 +8217,25 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J137">
         <v>20</v>
       </c>
       <c r="K137">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M137">
         <f t="shared" si="18"/>
-        <v>0.82499999999999996</v>
+        <v>2.1583333333333332</v>
       </c>
       <c r="N137">
         <f t="shared" si="19"/>
-        <v>3.8250000000000002</v>
+        <v>6.2833333333333332</v>
       </c>
       <c r="P137">
         <v>18</v>

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3024,10 +3024,10 @@
         <v>23</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I37">
         <v>20</v>
@@ -3037,15 +3037,15 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M37">
         <f t="shared" si="1"/>
-        <v>1.9793055555555557</v>
+        <v>2.4959722222222225</v>
       </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>7.0293055555555553</v>
+        <v>7.5459722222222227</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">

--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="G94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6346,7 +6346,7 @@
         <v>243</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D103">
         <f t="shared" si="13"/>
@@ -6378,11 +6378,11 @@
       </c>
       <c r="M103">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="N103">
         <f t="shared" si="9"/>
-        <v>1.8</v>
+        <v>2.1124999999999998</v>
       </c>
       <c r="P103">
         <v>7</v>
